--- a/Modello/nuovi modelli/test6/Soluzioni-5.xlsx
+++ b/Modello/nuovi modelli/test6/Soluzioni-5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
   </bookViews>
   <sheets>
     <sheet name="ADDITIVE-MODEL" sheetId="4" r:id="rId1"/>
@@ -16,259 +16,259 @@
     <sheet name="HYBRID" sheetId="11" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="ADDITIVE_DMU_1">'ADDITIVE-MODEL'!$B$2:$B$44</definedName>
-    <definedName name="ADDITIVE_DMU_10">'ADDITIVE-MODEL'!$K$2:$K$44</definedName>
-    <definedName name="ADDITIVE_DMU_11">'ADDITIVE-MODEL'!$L$2:$L$44</definedName>
-    <definedName name="ADDITIVE_DMU_12">'ADDITIVE-MODEL'!$M$2:$M$44</definedName>
-    <definedName name="ADDITIVE_DMU_13">'ADDITIVE-MODEL'!$N$2:$N$44</definedName>
-    <definedName name="ADDITIVE_DMU_14">'ADDITIVE-MODEL'!#REF!</definedName>
-    <definedName name="ADDITIVE_DMU_15">'ADDITIVE-MODEL'!$O$2:$O$44</definedName>
-    <definedName name="ADDITIVE_DMU_16">'ADDITIVE-MODEL'!$P$2:$P$44</definedName>
-    <definedName name="ADDITIVE_DMU_17">'ADDITIVE-MODEL'!$Q$2:$Q$44</definedName>
-    <definedName name="ADDITIVE_DMU_18">'ADDITIVE-MODEL'!$R$2:$R$44</definedName>
-    <definedName name="ADDITIVE_DMU_19">'ADDITIVE-MODEL'!$S$2:$S$44</definedName>
-    <definedName name="ADDITIVE_DMU_2">'ADDITIVE-MODEL'!$C$2:$C$44</definedName>
-    <definedName name="ADDITIVE_DMU_20">'ADDITIVE-MODEL'!$T$2:$T$44</definedName>
-    <definedName name="ADDITIVE_DMU_21">'ADDITIVE-MODEL'!$U$2:$U$44</definedName>
-    <definedName name="ADDITIVE_DMU_22">'ADDITIVE-MODEL'!$V$2:$V$44</definedName>
-    <definedName name="ADDITIVE_DMU_23">'ADDITIVE-MODEL'!$W$2:$W$44</definedName>
-    <definedName name="ADDITIVE_DMU_24">'ADDITIVE-MODEL'!$X$2:$X$44</definedName>
-    <definedName name="ADDITIVE_DMU_25">'ADDITIVE-MODEL'!$Y$2:$Y$44</definedName>
-    <definedName name="ADDITIVE_DMU_26">'ADDITIVE-MODEL'!$Z$2:$Z$44</definedName>
-    <definedName name="ADDITIVE_DMU_27">'ADDITIVE-MODEL'!$AA$2:$AA$44</definedName>
-    <definedName name="ADDITIVE_DMU_28">'ADDITIVE-MODEL'!$AB$2:$AB$44</definedName>
-    <definedName name="ADDITIVE_DMU_29">'ADDITIVE-MODEL'!$AC$2:$AC$44</definedName>
-    <definedName name="ADDITIVE_DMU_3">'ADDITIVE-MODEL'!$D$2:$D$44</definedName>
-    <definedName name="ADDITIVE_DMU_30">'ADDITIVE-MODEL'!$AD$2:$AD$44</definedName>
-    <definedName name="ADDITIVE_DMU_31">'ADDITIVE-MODEL'!$AE$2:$AE$44</definedName>
-    <definedName name="ADDITIVE_DMU_32">'ADDITIVE-MODEL'!$AF$2:$AF$44</definedName>
-    <definedName name="ADDITIVE_DMU_33">'ADDITIVE-MODEL'!$AG$2:$AG$44</definedName>
-    <definedName name="ADDITIVE_DMU_34">'ADDITIVE-MODEL'!$AH$2:$AH$44</definedName>
-    <definedName name="ADDITIVE_DMU_35">'ADDITIVE-MODEL'!$AI$2:$AI$44</definedName>
-    <definedName name="ADDITIVE_DMU_36">'ADDITIVE-MODEL'!$AJ$2:$AJ$44</definedName>
-    <definedName name="ADDITIVE_DMU_37">'ADDITIVE-MODEL'!$AK$2:$AK$44</definedName>
-    <definedName name="ADDITIVE_DMU_4">'ADDITIVE-MODEL'!$E$2:$E$44</definedName>
-    <definedName name="ADDITIVE_DMU_5">'ADDITIVE-MODEL'!$F$2:$F$44</definedName>
-    <definedName name="ADDITIVE_DMU_6">'ADDITIVE-MODEL'!$G$2:$G$44</definedName>
-    <definedName name="ADDITIVE_DMU_7">'ADDITIVE-MODEL'!$H$2:$H$44</definedName>
-    <definedName name="ADDITIVE_DMU_8">'ADDITIVE-MODEL'!$I$2:$I$44</definedName>
-    <definedName name="ADDITIVE_DMU_9">'ADDITIVE-MODEL'!$J$2:$J$44</definedName>
-    <definedName name="BCC_DMU_1">'BCC-MODEL'!$B$2:$B$44</definedName>
-    <definedName name="BCC_DMU_10">'BCC-MODEL'!$K$2:$K$44</definedName>
-    <definedName name="BCC_DMU_11">'BCC-MODEL'!$L$2:$L$44</definedName>
-    <definedName name="BCC_DMU_12">'BCC-MODEL'!$M$2:$M$44</definedName>
-    <definedName name="BCC_DMU_13">'BCC-MODEL'!$N$2:$N$44</definedName>
-    <definedName name="BCC_DMU_14">'BCC-MODEL'!#REF!</definedName>
-    <definedName name="BCC_DMU_15">'BCC-MODEL'!$O$2:$O$44</definedName>
-    <definedName name="BCC_DMU_16">'BCC-MODEL'!$P$2:$P$44</definedName>
-    <definedName name="BCC_DMU_17">'BCC-MODEL'!$Q$2:$Q$44</definedName>
-    <definedName name="BCC_DMU_18">'BCC-MODEL'!$R$2:$R$44</definedName>
-    <definedName name="BCC_DMU_19">'BCC-MODEL'!$S$2:$S$44</definedName>
-    <definedName name="BCC_DMU_2">'BCC-MODEL'!$C$2:$C$44</definedName>
-    <definedName name="BCC_DMU_20">'BCC-MODEL'!$T$2:$T$44</definedName>
-    <definedName name="BCC_DMU_21">'BCC-MODEL'!$U$2:$U$44</definedName>
-    <definedName name="BCC_DMU_22">'BCC-MODEL'!$V$2:$V$44</definedName>
-    <definedName name="BCC_DMU_23">'BCC-MODEL'!$W$2:$W$44</definedName>
-    <definedName name="BCC_DMU_24">'BCC-MODEL'!$X$2:$X$44</definedName>
-    <definedName name="BCC_DMU_25">'BCC-MODEL'!$Y$2:$Y$44</definedName>
-    <definedName name="BCC_DMU_26">'BCC-MODEL'!$Z$2:$Z$44</definedName>
-    <definedName name="BCC_DMU_27">'BCC-MODEL'!$AA$2:$AA$44</definedName>
-    <definedName name="BCC_DMU_28">'BCC-MODEL'!$AB$2:$AB$44</definedName>
-    <definedName name="BCC_DMU_29">'BCC-MODEL'!$AC$2:$AC$44</definedName>
-    <definedName name="BCC_DMU_3">'BCC-MODEL'!$D$2:$D$44</definedName>
-    <definedName name="BCC_DMU_30">'BCC-MODEL'!$AD$2:$AD$44</definedName>
-    <definedName name="BCC_DMU_31">'BCC-MODEL'!$AE$2:$AE$44</definedName>
-    <definedName name="BCC_DMU_32">'BCC-MODEL'!$AF$2:$AF$44</definedName>
-    <definedName name="BCC_DMU_33">'BCC-MODEL'!$AG$2:$AG$44</definedName>
-    <definedName name="BCC_DMU_34">'BCC-MODEL'!$AH$2:$AH$44</definedName>
-    <definedName name="BCC_DMU_35">'BCC-MODEL'!$AI$2:$AI$44</definedName>
-    <definedName name="BCC_DMU_36">'BCC-MODEL'!$AJ$2:$AJ$44</definedName>
-    <definedName name="BCC_DMU_37">'BCC-MODEL'!$AK$2:$AK$44</definedName>
-    <definedName name="BCC_DMU_4">'BCC-MODEL'!$E$2:$E$44</definedName>
-    <definedName name="BCC_DMU_5">'BCC-MODEL'!$F$2:$F$44</definedName>
-    <definedName name="BCC_DMU_6">'BCC-MODEL'!$G$2:$G$44</definedName>
-    <definedName name="BCC_DMU_7">'BCC-MODEL'!$H$2:$H$44</definedName>
-    <definedName name="BCC_DMU_8">'BCC-MODEL'!$I$2:$I$44</definedName>
-    <definedName name="BCC_DMU_9">'BCC-MODEL'!$J$2:$J$44</definedName>
-    <definedName name="BCCO_DMU_1">'BCC-OUTPUT'!$B$2:$B$44</definedName>
-    <definedName name="BCCO_DMU_10">'BCC-OUTPUT'!$K$2:$K$44</definedName>
-    <definedName name="BCCO_DMU_11">'BCC-OUTPUT'!$L$2:$L$44</definedName>
-    <definedName name="BCCO_DMU_12">'BCC-OUTPUT'!$M$2:$M$44</definedName>
-    <definedName name="BCCO_DMU_13">'BCC-OUTPUT'!$N$2:$N$44</definedName>
-    <definedName name="BCCO_DMU_14">'BCC-OUTPUT'!#REF!</definedName>
-    <definedName name="BCCO_DMU_15">'BCC-OUTPUT'!$O$2:$O$44</definedName>
-    <definedName name="BCCO_DMU_16">'BCC-OUTPUT'!$P$2:$P$44</definedName>
-    <definedName name="BCCO_DMU_17">'BCC-OUTPUT'!$Q$2:$Q$44</definedName>
-    <definedName name="BCCO_DMU_18">'BCC-OUTPUT'!$R$2:$R$44</definedName>
-    <definedName name="BCCO_DMU_19">'BCC-OUTPUT'!$S$2:$S$44</definedName>
-    <definedName name="BCCO_DMU_2">'BCC-OUTPUT'!$C$2:$C$44</definedName>
-    <definedName name="BCCO_DMU_20">'BCC-OUTPUT'!$T$2:$T$44</definedName>
-    <definedName name="BCCO_DMU_21">'BCC-OUTPUT'!$U$2:$U$44</definedName>
-    <definedName name="BCCO_DMU_22">'BCC-OUTPUT'!$V$2:$V$44</definedName>
-    <definedName name="BCCO_DMU_23">'BCC-OUTPUT'!$W$2:$W$44</definedName>
-    <definedName name="BCCO_DMU_24">'BCC-OUTPUT'!$X$2:$X$44</definedName>
-    <definedName name="BCCO_DMU_25">'BCC-OUTPUT'!$Y$2:$Y$44</definedName>
-    <definedName name="BCCO_DMU_26">'BCC-OUTPUT'!$Z$2:$Z$44</definedName>
-    <definedName name="BCCO_DMU_27">'BCC-OUTPUT'!$AA$2:$AA$44</definedName>
-    <definedName name="BCCO_DMU_28">'BCC-OUTPUT'!$AB$2:$AB$44</definedName>
-    <definedName name="BCCO_DMU_29">'BCC-OUTPUT'!$AC$2:$AC$44</definedName>
-    <definedName name="BCCO_DMU_3">'BCC-OUTPUT'!$D$2:$D$44</definedName>
-    <definedName name="BCCO_DMU_30">'BCC-OUTPUT'!$AD$2:$AD$44</definedName>
-    <definedName name="BCCO_DMU_31">'BCC-OUTPUT'!$AE$2:$AE$44</definedName>
-    <definedName name="BCCO_DMU_32">'BCC-OUTPUT'!$AF$2:$AF$44</definedName>
-    <definedName name="BCCO_DMU_33">'BCC-OUTPUT'!$AG$2:$AG$44</definedName>
-    <definedName name="BCCO_DMU_34">'BCC-OUTPUT'!$AH$2:$AH$44</definedName>
-    <definedName name="BCCO_DMU_35">'BCC-OUTPUT'!$AI$2:$AI$44</definedName>
-    <definedName name="BCCO_DMU_36">'BCC-OUTPUT'!$AJ$2:$AJ$44</definedName>
-    <definedName name="BCCO_DMU_37">'BCC-OUTPUT'!$AK$2:$AK$44</definedName>
-    <definedName name="BCCO_DMU_4">'BCC-OUTPUT'!$E$2:$E$44</definedName>
-    <definedName name="BCCO_DMU_5">'BCC-OUTPUT'!$F$2:$F$44</definedName>
-    <definedName name="BCCO_DMU_6">'BCC-OUTPUT'!$G$2:$G$44</definedName>
-    <definedName name="BCCO_DMU_7">'BCC-OUTPUT'!$H$2:$H$44</definedName>
-    <definedName name="BCCO_DMU_8">'BCC-OUTPUT'!$I$2:$I$44</definedName>
-    <definedName name="BCCO_DMU_9">'BCC-OUTPUT'!$J$2:$J$44</definedName>
-    <definedName name="CCR_DMU_1">'CCR-DUAL'!$B$2:$B$44</definedName>
-    <definedName name="CCR_DMU_10">'CCR-DUAL'!$K$2:$K$44</definedName>
-    <definedName name="CCR_DMU_11">'CCR-DUAL'!$L$2:$L$44</definedName>
-    <definedName name="CCR_DMU_12">'CCR-DUAL'!$M$2:$M$44</definedName>
-    <definedName name="CCR_DMU_13">'CCR-DUAL'!$N$2:$N$44</definedName>
-    <definedName name="CCR_DMU_14">'CCR-DUAL'!#REF!</definedName>
-    <definedName name="CCR_DMU_15">'CCR-DUAL'!$O$2:$O$44</definedName>
-    <definedName name="CCR_DMU_16">'CCR-DUAL'!$P$2:$P$44</definedName>
-    <definedName name="CCR_DMU_17">'CCR-DUAL'!$Q$2:$Q$44</definedName>
-    <definedName name="CCR_DMU_18">'CCR-DUAL'!$R$2:$R$44</definedName>
-    <definedName name="CCR_DMU_19">'CCR-DUAL'!$S$2:$S$44</definedName>
-    <definedName name="CCR_DMU_2">'CCR-DUAL'!$C$2:$C$44</definedName>
-    <definedName name="CCR_DMU_20">'CCR-DUAL'!$T$2:$T$44</definedName>
-    <definedName name="CCR_DMU_21">'CCR-DUAL'!$U$2:$U$44</definedName>
-    <definedName name="CCR_DMU_22">'CCR-DUAL'!$V$2:$V$44</definedName>
-    <definedName name="CCR_DMU_23">'CCR-DUAL'!$W$2:$W$44</definedName>
-    <definedName name="CCR_DMU_24">'CCR-DUAL'!$X$2:$X$44</definedName>
-    <definedName name="CCR_DMU_25">'CCR-DUAL'!$Y$2:$Y$44</definedName>
-    <definedName name="CCR_DMU_26">'CCR-DUAL'!$Z$2:$Z$44</definedName>
-    <definedName name="CCR_DMU_27">'CCR-DUAL'!$AA$2:$AA$44</definedName>
-    <definedName name="CCR_DMU_28">'CCR-DUAL'!$AB$2:$AB$44</definedName>
-    <definedName name="CCR_DMU_29">'CCR-DUAL'!$AC$2:$AC$44</definedName>
-    <definedName name="CCR_DMU_3">'CCR-DUAL'!$D$2:$D$44</definedName>
-    <definedName name="CCR_DMU_30">'CCR-DUAL'!$AD$2:$AD$44</definedName>
-    <definedName name="CCR_DMU_31">'CCR-DUAL'!$AE$2:$AE$44</definedName>
-    <definedName name="CCR_DMU_32">'CCR-DUAL'!$AF$2:$AF$44</definedName>
-    <definedName name="CCR_DMU_33">'CCR-DUAL'!$AG$2:$AG$44</definedName>
-    <definedName name="CCR_DMU_34">'CCR-DUAL'!$AH$2:$AH$44</definedName>
-    <definedName name="CCR_DMU_35">'CCR-DUAL'!$AI$2:$AI$44</definedName>
-    <definedName name="CCR_DMU_36">'CCR-DUAL'!$AJ$2:$AJ$44</definedName>
-    <definedName name="CCR_DMU_37">'CCR-DUAL'!$AK$2:$AK$44</definedName>
-    <definedName name="CCR_DMU_4">'CCR-DUAL'!$E$2:$E$44</definedName>
-    <definedName name="CCR_DMU_5">'CCR-DUAL'!$F$2:$F$44</definedName>
-    <definedName name="CCR_DMU_6">'CCR-DUAL'!$G$2:$G$44</definedName>
-    <definedName name="CCR_DMU_7">'CCR-DUAL'!$H$2:$H$44</definedName>
-    <definedName name="CCR_DMU_8">'CCR-DUAL'!$I$2:$I$44</definedName>
-    <definedName name="CCR_DMU_9">'CCR-DUAL'!$J$2:$J$44</definedName>
-    <definedName name="CCRO_DMU_1">'CCR-OUTPUT'!$B$2:$B$44</definedName>
-    <definedName name="CCRO_DMU_10">'CCR-OUTPUT'!$K$2:$K$44</definedName>
-    <definedName name="CCRO_DMU_11">'CCR-OUTPUT'!$L$2:$L$44</definedName>
-    <definedName name="CCRO_DMU_12">'CCR-OUTPUT'!$M$2:$M$44</definedName>
-    <definedName name="CCRO_DMU_13">'CCR-OUTPUT'!$N$2:$N$44</definedName>
-    <definedName name="CCRO_DMU_14">'CCR-OUTPUT'!#REF!</definedName>
-    <definedName name="CCRO_DMU_15">'CCR-OUTPUT'!$O$2:$O$44</definedName>
-    <definedName name="CCRO_DMU_16">'CCR-OUTPUT'!$P$2:$P$44</definedName>
-    <definedName name="CCRO_DMU_17">'CCR-OUTPUT'!$Q$2:$Q$44</definedName>
-    <definedName name="CCRO_DMU_18">'CCR-OUTPUT'!$R$2:$R$44</definedName>
-    <definedName name="CCRO_DMU_19">'CCR-OUTPUT'!$S$2:$S$44</definedName>
-    <definedName name="CCRO_DMU_2">'CCR-OUTPUT'!$C$2:$C$44</definedName>
-    <definedName name="CCRO_DMU_20">'CCR-OUTPUT'!$T$2:$T$44</definedName>
-    <definedName name="CCRO_DMU_21">'CCR-OUTPUT'!$U$2:$U$44</definedName>
-    <definedName name="CCRO_DMU_22">'CCR-OUTPUT'!$V$2:$V$44</definedName>
-    <definedName name="CCRO_DMU_23">'CCR-OUTPUT'!$W$2:$W$44</definedName>
-    <definedName name="CCRO_DMU_24">'CCR-OUTPUT'!$X$2:$X$44</definedName>
-    <definedName name="CCRO_DMU_25">'CCR-OUTPUT'!$Y$2:$Y$44</definedName>
-    <definedName name="CCRO_DMU_26">'CCR-OUTPUT'!$Z$2:$Z$44</definedName>
-    <definedName name="CCRO_DMU_27">'CCR-OUTPUT'!$AA$2:$AA$44</definedName>
-    <definedName name="CCRO_DMU_28">'CCR-OUTPUT'!$AB$2:$AB$44</definedName>
-    <definedName name="CCRO_DMU_29">'CCR-OUTPUT'!$AC$2:$AC$44</definedName>
-    <definedName name="CCRO_DMU_3">'CCR-OUTPUT'!$D$2:$D$44</definedName>
-    <definedName name="CCRO_DMU_30">'CCR-OUTPUT'!$AD$2:$AD$44</definedName>
-    <definedName name="CCRO_DMU_31">'CCR-OUTPUT'!$AE$2:$AE$44</definedName>
-    <definedName name="CCRO_DMU_32">'CCR-OUTPUT'!$AF$2:$AF$44</definedName>
-    <definedName name="CCRO_DMU_33">'CCR-OUTPUT'!$AG$2:$AG$44</definedName>
-    <definedName name="CCRO_DMU_34">'CCR-OUTPUT'!$AH$2:$AH$44</definedName>
-    <definedName name="CCRO_DMU_35">'CCR-OUTPUT'!$AI$2:$AI$44</definedName>
-    <definedName name="CCRO_DMU_36">'CCR-OUTPUT'!$AJ$2:$AJ$44</definedName>
-    <definedName name="CCRO_DMU_37">'CCR-OUTPUT'!$AK$2:$AK$44</definedName>
-    <definedName name="CCRO_DMU_4">'CCR-OUTPUT'!$E$2:$E$44</definedName>
-    <definedName name="CCRO_DMU_5">'CCR-OUTPUT'!$F$2:$F$44</definedName>
-    <definedName name="CCRO_DMU_6">'CCR-OUTPUT'!$G$2:$G$44</definedName>
-    <definedName name="CCRO_DMU_7">'CCR-OUTPUT'!$H$2:$H$44</definedName>
-    <definedName name="CCRO_DMU_8">'CCR-OUTPUT'!$I$2:$I$44</definedName>
-    <definedName name="CCRO_DMU_9">'CCR-OUTPUT'!$J$2:$J$44</definedName>
-    <definedName name="HYBRID_DMU_1">HYBRID!$B$2:$B$41</definedName>
-    <definedName name="HYBRID_DMU_10">HYBRID!$K$2:$K$41</definedName>
-    <definedName name="HYBRID_DMU_11">HYBRID!$L$2:$L$41</definedName>
-    <definedName name="HYBRID_DMU_12">HYBRID!$M$2:$M$41</definedName>
-    <definedName name="HYBRID_DMU_13">HYBRID!$N$2:$N$41</definedName>
-    <definedName name="HYBRID_DMU_14">HYBRID!#REF!</definedName>
-    <definedName name="HYBRID_DMU_15">HYBRID!$O$2:$O$41</definedName>
-    <definedName name="HYBRID_DMU_16">HYBRID!$P$2:$P$41</definedName>
-    <definedName name="HYBRID_DMU_17">HYBRID!$Q$2:$Q$41</definedName>
-    <definedName name="HYBRID_DMU_18">HYBRID!$R$2:$R$41</definedName>
-    <definedName name="HYBRID_DMU_19">HYBRID!$S$2:$S$41</definedName>
-    <definedName name="HYBRID_DMU_2">HYBRID!$C$2:$C$41</definedName>
-    <definedName name="HYBRID_DMU_20">HYBRID!$T$2:$T$41</definedName>
-    <definedName name="HYBRID_DMU_21">HYBRID!$U$2:$U$41</definedName>
-    <definedName name="HYBRID_DMU_22">HYBRID!$V$2:$V$41</definedName>
-    <definedName name="HYBRID_DMU_23">HYBRID!$W$2:$W$41</definedName>
-    <definedName name="HYBRID_DMU_24">HYBRID!$X$2:$X$41</definedName>
-    <definedName name="HYBRID_DMU_25">HYBRID!$Y$2:$Y$41</definedName>
-    <definedName name="HYBRID_DMU_26">HYBRID!$Z$2:$Z$41</definedName>
-    <definedName name="HYBRID_DMU_27">HYBRID!$AA$2:$AA$41</definedName>
-    <definedName name="HYBRID_DMU_28">HYBRID!$AB$2:$AB$41</definedName>
-    <definedName name="HYBRID_DMU_29">HYBRID!$AC$2:$AC$41</definedName>
-    <definedName name="HYBRID_DMU_3">HYBRID!$D$2:$D$41</definedName>
-    <definedName name="HYBRID_DMU_30">HYBRID!$AD$2:$AD$41</definedName>
-    <definedName name="HYBRID_DMU_31">HYBRID!$AE$2:$AE$41</definedName>
-    <definedName name="HYBRID_DMU_32">HYBRID!$AF$2:$AF$41</definedName>
-    <definedName name="HYBRID_DMU_33">HYBRID!$AG$2:$AG$41</definedName>
-    <definedName name="HYBRID_DMU_34">HYBRID!$AH$2:$AH$41</definedName>
-    <definedName name="HYBRID_DMU_35">HYBRID!$AI$2:$AI$41</definedName>
-    <definedName name="HYBRID_DMU_36">HYBRID!$AJ$2:$AJ$41</definedName>
-    <definedName name="HYBRID_DMU_37">HYBRID!$AK$2:$AK$41</definedName>
-    <definedName name="HYBRID_DMU_4">HYBRID!$E$2:$E$41</definedName>
-    <definedName name="HYBRID_DMU_5">HYBRID!$F$2:$F$41</definedName>
-    <definedName name="HYBRID_DMU_6">HYBRID!$G$2:$G$41</definedName>
-    <definedName name="HYBRID_DMU_7">HYBRID!$H$2:$H$41</definedName>
-    <definedName name="HYBRID_DMU_8">HYBRID!$I$2:$I$41</definedName>
-    <definedName name="HYBRID_DMU_9">HYBRID!$J$2:$J$41</definedName>
+    <definedName name="ADDITIVE_DMU_1">'ADDITIVE-MODEL'!$B$2:$B$45</definedName>
+    <definedName name="ADDITIVE_DMU_10">'ADDITIVE-MODEL'!$K$2:$K$45</definedName>
+    <definedName name="ADDITIVE_DMU_11">'ADDITIVE-MODEL'!$L$2:$L$45</definedName>
+    <definedName name="ADDITIVE_DMU_12">'ADDITIVE-MODEL'!$M$2:$M$45</definedName>
+    <definedName name="ADDITIVE_DMU_13">'ADDITIVE-MODEL'!$N$2:$N$45</definedName>
+    <definedName name="ADDITIVE_DMU_14">'ADDITIVE-MODEL'!$O$2:$O$45</definedName>
+    <definedName name="ADDITIVE_DMU_15">'ADDITIVE-MODEL'!$P$2:$P$45</definedName>
+    <definedName name="ADDITIVE_DMU_16">'ADDITIVE-MODEL'!$Q$2:$Q$45</definedName>
+    <definedName name="ADDITIVE_DMU_17">'ADDITIVE-MODEL'!$R$2:$R$45</definedName>
+    <definedName name="ADDITIVE_DMU_18">'ADDITIVE-MODEL'!$S$2:$S$45</definedName>
+    <definedName name="ADDITIVE_DMU_19">'ADDITIVE-MODEL'!$T$2:$T$45</definedName>
+    <definedName name="ADDITIVE_DMU_2">'ADDITIVE-MODEL'!$C$2:$C$45</definedName>
+    <definedName name="ADDITIVE_DMU_20">'ADDITIVE-MODEL'!$U$2:$U$45</definedName>
+    <definedName name="ADDITIVE_DMU_21">'ADDITIVE-MODEL'!$V$2:$V$45</definedName>
+    <definedName name="ADDITIVE_DMU_22">'ADDITIVE-MODEL'!$W$2:$W$45</definedName>
+    <definedName name="ADDITIVE_DMU_23">'ADDITIVE-MODEL'!$X$2:$X$45</definedName>
+    <definedName name="ADDITIVE_DMU_24">'ADDITIVE-MODEL'!$Y$2:$Y$45</definedName>
+    <definedName name="ADDITIVE_DMU_25">'ADDITIVE-MODEL'!$Z$2:$Z$45</definedName>
+    <definedName name="ADDITIVE_DMU_26">'ADDITIVE-MODEL'!$AA$2:$AA$45</definedName>
+    <definedName name="ADDITIVE_DMU_27">'ADDITIVE-MODEL'!$AB$2:$AB$45</definedName>
+    <definedName name="ADDITIVE_DMU_28">'ADDITIVE-MODEL'!$AC$2:$AC$45</definedName>
+    <definedName name="ADDITIVE_DMU_29">'ADDITIVE-MODEL'!$AD$2:$AD$45</definedName>
+    <definedName name="ADDITIVE_DMU_3">'ADDITIVE-MODEL'!$D$2:$D$45</definedName>
+    <definedName name="ADDITIVE_DMU_30">'ADDITIVE-MODEL'!$AE$2:$AE$45</definedName>
+    <definedName name="ADDITIVE_DMU_31">'ADDITIVE-MODEL'!$AF$2:$AF$45</definedName>
+    <definedName name="ADDITIVE_DMU_32">'ADDITIVE-MODEL'!$AG$2:$AG$45</definedName>
+    <definedName name="ADDITIVE_DMU_33">'ADDITIVE-MODEL'!$AH$2:$AH$45</definedName>
+    <definedName name="ADDITIVE_DMU_34">'ADDITIVE-MODEL'!$AI$2:$AI$45</definedName>
+    <definedName name="ADDITIVE_DMU_35">'ADDITIVE-MODEL'!$AJ$2:$AJ$45</definedName>
+    <definedName name="ADDITIVE_DMU_36">'ADDITIVE-MODEL'!$AK$2:$AK$45</definedName>
+    <definedName name="ADDITIVE_DMU_37">'ADDITIVE-MODEL'!$AL$2:$AL$45</definedName>
+    <definedName name="ADDITIVE_DMU_4">'ADDITIVE-MODEL'!$E$2:$E$45</definedName>
+    <definedName name="ADDITIVE_DMU_5">'ADDITIVE-MODEL'!$F$2:$F$45</definedName>
+    <definedName name="ADDITIVE_DMU_6">'ADDITIVE-MODEL'!$G$2:$G$45</definedName>
+    <definedName name="ADDITIVE_DMU_7">'ADDITIVE-MODEL'!$H$2:$H$45</definedName>
+    <definedName name="ADDITIVE_DMU_8">'ADDITIVE-MODEL'!$I$2:$I$45</definedName>
+    <definedName name="ADDITIVE_DMU_9">'ADDITIVE-MODEL'!$J$2:$J$45</definedName>
+    <definedName name="BCC_DMU_1">'BCC-MODEL'!$B$2:$B$45</definedName>
+    <definedName name="BCC_DMU_10">'BCC-MODEL'!$K$2:$K$45</definedName>
+    <definedName name="BCC_DMU_11">'BCC-MODEL'!$L$2:$L$45</definedName>
+    <definedName name="BCC_DMU_12">'BCC-MODEL'!$M$2:$M$45</definedName>
+    <definedName name="BCC_DMU_13">'BCC-MODEL'!$N$2:$N$45</definedName>
+    <definedName name="BCC_DMU_14">'BCC-MODEL'!$O$2:$O$45</definedName>
+    <definedName name="BCC_DMU_15">'BCC-MODEL'!$P$2:$P$45</definedName>
+    <definedName name="BCC_DMU_16">'BCC-MODEL'!$Q$2:$Q$45</definedName>
+    <definedName name="BCC_DMU_17">'BCC-MODEL'!$R$2:$R$45</definedName>
+    <definedName name="BCC_DMU_18">'BCC-MODEL'!$S$2:$S$45</definedName>
+    <definedName name="BCC_DMU_19">'BCC-MODEL'!$T$2:$T$45</definedName>
+    <definedName name="BCC_DMU_2">'BCC-MODEL'!$C$2:$C$45</definedName>
+    <definedName name="BCC_DMU_20">'BCC-MODEL'!$U$2:$U$45</definedName>
+    <definedName name="BCC_DMU_21">'BCC-MODEL'!$V$2:$V$45</definedName>
+    <definedName name="BCC_DMU_22">'BCC-MODEL'!$W$2:$W$45</definedName>
+    <definedName name="BCC_DMU_23">'BCC-MODEL'!$X$2:$X$45</definedName>
+    <definedName name="BCC_DMU_24">'BCC-MODEL'!$Y$2:$Y$45</definedName>
+    <definedName name="BCC_DMU_25">'BCC-MODEL'!$Z$2:$Z$45</definedName>
+    <definedName name="BCC_DMU_26">'BCC-MODEL'!$AA$2:$AA$45</definedName>
+    <definedName name="BCC_DMU_27">'BCC-MODEL'!$AB$2:$AB$45</definedName>
+    <definedName name="BCC_DMU_28">'BCC-MODEL'!$AC$2:$AC$45</definedName>
+    <definedName name="BCC_DMU_29">'BCC-MODEL'!$AD$2:$AD$45</definedName>
+    <definedName name="BCC_DMU_3">'BCC-MODEL'!$D$2:$D$45</definedName>
+    <definedName name="BCC_DMU_30">'BCC-MODEL'!$AE$2:$AE$45</definedName>
+    <definedName name="BCC_DMU_31">'BCC-MODEL'!$AF$2:$AF$45</definedName>
+    <definedName name="BCC_DMU_32">'BCC-MODEL'!$AG$2:$AG$45</definedName>
+    <definedName name="BCC_DMU_33">'BCC-MODEL'!$AH$2:$AH$45</definedName>
+    <definedName name="BCC_DMU_34">'BCC-MODEL'!$AI$2:$AI$45</definedName>
+    <definedName name="BCC_DMU_35">'BCC-MODEL'!$AJ$2:$AJ$45</definedName>
+    <definedName name="BCC_DMU_36">'BCC-MODEL'!$AK$2:$AK$45</definedName>
+    <definedName name="BCC_DMU_37">'BCC-MODEL'!$AL$2:$AL$45</definedName>
+    <definedName name="BCC_DMU_4">'BCC-MODEL'!$E$2:$E$45</definedName>
+    <definedName name="BCC_DMU_5">'BCC-MODEL'!$F$2:$F$45</definedName>
+    <definedName name="BCC_DMU_6">'BCC-MODEL'!$G$2:$G$45</definedName>
+    <definedName name="BCC_DMU_7">'BCC-MODEL'!$H$2:$H$45</definedName>
+    <definedName name="BCC_DMU_8">'BCC-MODEL'!$I$2:$I$45</definedName>
+    <definedName name="BCC_DMU_9">'BCC-MODEL'!$J$2:$J$45</definedName>
+    <definedName name="BCCO_DMU_1">'BCC-OUTPUT'!$B$2:$B$45</definedName>
+    <definedName name="BCCO_DMU_10">'BCC-OUTPUT'!$K$2:$K$45</definedName>
+    <definedName name="BCCO_DMU_11">'BCC-OUTPUT'!$L$2:$L$45</definedName>
+    <definedName name="BCCO_DMU_12">'BCC-OUTPUT'!$M$2:$M$45</definedName>
+    <definedName name="BCCO_DMU_13">'BCC-OUTPUT'!$N$2:$N$45</definedName>
+    <definedName name="BCCO_DMU_14">'BCC-OUTPUT'!$O$2:$O$45</definedName>
+    <definedName name="BCCO_DMU_15">'BCC-OUTPUT'!$P$2:$P$45</definedName>
+    <definedName name="BCCO_DMU_16">'BCC-OUTPUT'!$Q$2:$Q$45</definedName>
+    <definedName name="BCCO_DMU_17">'BCC-OUTPUT'!$R$2:$R$45</definedName>
+    <definedName name="BCCO_DMU_18">'BCC-OUTPUT'!$S$2:$S$45</definedName>
+    <definedName name="BCCO_DMU_19">'BCC-OUTPUT'!$T$2:$T$45</definedName>
+    <definedName name="BCCO_DMU_2">'BCC-OUTPUT'!$C$2:$C$45</definedName>
+    <definedName name="BCCO_DMU_20">'BCC-OUTPUT'!$U$2:$U$45</definedName>
+    <definedName name="BCCO_DMU_21">'BCC-OUTPUT'!$V$2:$V$45</definedName>
+    <definedName name="BCCO_DMU_22">'BCC-OUTPUT'!$W$2:$W$45</definedName>
+    <definedName name="BCCO_DMU_23">'BCC-OUTPUT'!$X$2:$X$45</definedName>
+    <definedName name="BCCO_DMU_24">'BCC-OUTPUT'!$Y$2:$Y$45</definedName>
+    <definedName name="BCCO_DMU_25">'BCC-OUTPUT'!$Z$2:$Z$45</definedName>
+    <definedName name="BCCO_DMU_26">'BCC-OUTPUT'!$AA$2:$AA$45</definedName>
+    <definedName name="BCCO_DMU_27">'BCC-OUTPUT'!$AB$2:$AB$45</definedName>
+    <definedName name="BCCO_DMU_28">'BCC-OUTPUT'!$AC$2:$AC$45</definedName>
+    <definedName name="BCCO_DMU_29">'BCC-OUTPUT'!$AD$2:$AD$45</definedName>
+    <definedName name="BCCO_DMU_3">'BCC-OUTPUT'!$D$2:$D$45</definedName>
+    <definedName name="BCCO_DMU_30">'BCC-OUTPUT'!$AE$2:$AE$45</definedName>
+    <definedName name="BCCO_DMU_31">'BCC-OUTPUT'!$AF$2:$AF$45</definedName>
+    <definedName name="BCCO_DMU_32">'BCC-OUTPUT'!$AG$2:$AG$45</definedName>
+    <definedName name="BCCO_DMU_33">'BCC-OUTPUT'!$AH$2:$AH$45</definedName>
+    <definedName name="BCCO_DMU_34">'BCC-OUTPUT'!$AI$2:$AI$45</definedName>
+    <definedName name="BCCO_DMU_35">'BCC-OUTPUT'!$AJ$2:$AJ$45</definedName>
+    <definedName name="BCCO_DMU_36">'BCC-OUTPUT'!$AK$2:$AK$45</definedName>
+    <definedName name="BCCO_DMU_37">'BCC-OUTPUT'!$AL$2:$AL$45</definedName>
+    <definedName name="BCCO_DMU_4">'BCC-OUTPUT'!$E$2:$E$45</definedName>
+    <definedName name="BCCO_DMU_5">'BCC-OUTPUT'!$F$2:$F$45</definedName>
+    <definedName name="BCCO_DMU_6">'BCC-OUTPUT'!$G$2:$G$45</definedName>
+    <definedName name="BCCO_DMU_7">'BCC-OUTPUT'!$H$2:$H$45</definedName>
+    <definedName name="BCCO_DMU_8">'BCC-OUTPUT'!$I$2:$I$45</definedName>
+    <definedName name="BCCO_DMU_9">'BCC-OUTPUT'!$J$2:$J$45</definedName>
+    <definedName name="CCR_DMU_1">'CCR-DUAL'!$B$2:$B$45</definedName>
+    <definedName name="CCR_DMU_10">'CCR-DUAL'!$K$2:$K$45</definedName>
+    <definedName name="CCR_DMU_11">'CCR-DUAL'!$L$2:$L$45</definedName>
+    <definedName name="CCR_DMU_12">'CCR-DUAL'!$M$2:$M$45</definedName>
+    <definedName name="CCR_DMU_13">'CCR-DUAL'!$N$2:$N$45</definedName>
+    <definedName name="CCR_DMU_14">'CCR-DUAL'!$O$2:$O$45</definedName>
+    <definedName name="CCR_DMU_15">'CCR-DUAL'!$P$2:$P$45</definedName>
+    <definedName name="CCR_DMU_16">'CCR-DUAL'!$Q$2:$Q$45</definedName>
+    <definedName name="CCR_DMU_17">'CCR-DUAL'!$R$2:$R$45</definedName>
+    <definedName name="CCR_DMU_18">'CCR-DUAL'!$S$2:$S$45</definedName>
+    <definedName name="CCR_DMU_19">'CCR-DUAL'!$T$2:$T$45</definedName>
+    <definedName name="CCR_DMU_2">'CCR-DUAL'!$C$2:$C$45</definedName>
+    <definedName name="CCR_DMU_20">'CCR-DUAL'!$U$2:$U$45</definedName>
+    <definedName name="CCR_DMU_21">'CCR-DUAL'!$V$2:$V$45</definedName>
+    <definedName name="CCR_DMU_22">'CCR-DUAL'!$W$2:$W$45</definedName>
+    <definedName name="CCR_DMU_23">'CCR-DUAL'!$X$2:$X$45</definedName>
+    <definedName name="CCR_DMU_24">'CCR-DUAL'!$Y$2:$Y$45</definedName>
+    <definedName name="CCR_DMU_25">'CCR-DUAL'!$Z$2:$Z$45</definedName>
+    <definedName name="CCR_DMU_26">'CCR-DUAL'!$AA$2:$AA$45</definedName>
+    <definedName name="CCR_DMU_27">'CCR-DUAL'!$AB$2:$AB$45</definedName>
+    <definedName name="CCR_DMU_28">'CCR-DUAL'!$AC$2:$AC$45</definedName>
+    <definedName name="CCR_DMU_29">'CCR-DUAL'!$AD$2:$AD$45</definedName>
+    <definedName name="CCR_DMU_3">'CCR-DUAL'!$D$2:$D$45</definedName>
+    <definedName name="CCR_DMU_30">'CCR-DUAL'!$AE$2:$AE$45</definedName>
+    <definedName name="CCR_DMU_31">'CCR-DUAL'!$AF$2:$AF$45</definedName>
+    <definedName name="CCR_DMU_32">'CCR-DUAL'!$AG$2:$AG$45</definedName>
+    <definedName name="CCR_DMU_33">'CCR-DUAL'!$AH$2:$AH$45</definedName>
+    <definedName name="CCR_DMU_34">'CCR-DUAL'!$AI$2:$AI$45</definedName>
+    <definedName name="CCR_DMU_35">'CCR-DUAL'!$AJ$2:$AJ$45</definedName>
+    <definedName name="CCR_DMU_36">'CCR-DUAL'!$AK$2:$AK$45</definedName>
+    <definedName name="CCR_DMU_37">'CCR-DUAL'!$AL$2:$AL$45</definedName>
+    <definedName name="CCR_DMU_4">'CCR-DUAL'!$E$2:$E$45</definedName>
+    <definedName name="CCR_DMU_5">'CCR-DUAL'!$F$2:$F$45</definedName>
+    <definedName name="CCR_DMU_6">'CCR-DUAL'!$G$2:$G$45</definedName>
+    <definedName name="CCR_DMU_7">'CCR-DUAL'!$H$2:$H$45</definedName>
+    <definedName name="CCR_DMU_8">'CCR-DUAL'!$I$2:$I$45</definedName>
+    <definedName name="CCR_DMU_9">'CCR-DUAL'!$J$2:$J$45</definedName>
+    <definedName name="CCRO_DMU_1">'CCR-OUTPUT'!$B$2:$B$45</definedName>
+    <definedName name="CCRO_DMU_10">'CCR-OUTPUT'!$K$2:$K$45</definedName>
+    <definedName name="CCRO_DMU_11">'CCR-OUTPUT'!$L$2:$L$45</definedName>
+    <definedName name="CCRO_DMU_12">'CCR-OUTPUT'!$M$2:$M$45</definedName>
+    <definedName name="CCRO_DMU_13">'CCR-OUTPUT'!$N$2:$N$45</definedName>
+    <definedName name="CCRO_DMU_14">'CCR-OUTPUT'!$O$2:$O$45</definedName>
+    <definedName name="CCRO_DMU_15">'CCR-OUTPUT'!$P$2:$P$45</definedName>
+    <definedName name="CCRO_DMU_16">'CCR-OUTPUT'!$Q$2:$Q$45</definedName>
+    <definedName name="CCRO_DMU_17">'CCR-OUTPUT'!$R$2:$R$45</definedName>
+    <definedName name="CCRO_DMU_18">'CCR-OUTPUT'!$S$2:$S$45</definedName>
+    <definedName name="CCRO_DMU_19">'CCR-OUTPUT'!$T$2:$T$45</definedName>
+    <definedName name="CCRO_DMU_2">'CCR-OUTPUT'!$C$2:$C$45</definedName>
+    <definedName name="CCRO_DMU_20">'CCR-OUTPUT'!$U$2:$U$45</definedName>
+    <definedName name="CCRO_DMU_21">'CCR-OUTPUT'!$V$2:$V$45</definedName>
+    <definedName name="CCRO_DMU_22">'CCR-OUTPUT'!$W$2:$W$45</definedName>
+    <definedName name="CCRO_DMU_23">'CCR-OUTPUT'!$X$2:$X$45</definedName>
+    <definedName name="CCRO_DMU_24">'CCR-OUTPUT'!$Y$2:$Y$45</definedName>
+    <definedName name="CCRO_DMU_25">'CCR-OUTPUT'!$Z$2:$Z$45</definedName>
+    <definedName name="CCRO_DMU_26">'CCR-OUTPUT'!$AA$2:$AA$45</definedName>
+    <definedName name="CCRO_DMU_27">'CCR-OUTPUT'!$AB$2:$AB$45</definedName>
+    <definedName name="CCRO_DMU_28">'CCR-OUTPUT'!$AC$2:$AC$45</definedName>
+    <definedName name="CCRO_DMU_29">'CCR-OUTPUT'!$AD$2:$AD$45</definedName>
+    <definedName name="CCRO_DMU_3">'CCR-OUTPUT'!$D$2:$D$45</definedName>
+    <definedName name="CCRO_DMU_30">'CCR-OUTPUT'!$AE$2:$AE$45</definedName>
+    <definedName name="CCRO_DMU_31">'CCR-OUTPUT'!$AF$2:$AF$45</definedName>
+    <definedName name="CCRO_DMU_32">'CCR-OUTPUT'!$AG$2:$AG$45</definedName>
+    <definedName name="CCRO_DMU_33">'CCR-OUTPUT'!$AH$2:$AH$45</definedName>
+    <definedName name="CCRO_DMU_34">'CCR-OUTPUT'!$AI$2:$AI$45</definedName>
+    <definedName name="CCRO_DMU_35">'CCR-OUTPUT'!$AJ$2:$AJ$45</definedName>
+    <definedName name="CCRO_DMU_36">'CCR-OUTPUT'!$AK$2:$AK$45</definedName>
+    <definedName name="CCRO_DMU_37">'CCR-OUTPUT'!$AL$2:$AL$45</definedName>
+    <definedName name="CCRO_DMU_4">'CCR-OUTPUT'!$E$2:$E$45</definedName>
+    <definedName name="CCRO_DMU_5">'CCR-OUTPUT'!$F$2:$F$45</definedName>
+    <definedName name="CCRO_DMU_6">'CCR-OUTPUT'!$G$2:$G$45</definedName>
+    <definedName name="CCRO_DMU_7">'CCR-OUTPUT'!$H$2:$H$45</definedName>
+    <definedName name="CCRO_DMU_8">'CCR-OUTPUT'!$I$2:$I$45</definedName>
+    <definedName name="CCRO_DMU_9">'CCR-OUTPUT'!$J$2:$J$45</definedName>
+    <definedName name="HYBRID_DMU_1">HYBRID!$B$2:$B$42</definedName>
+    <definedName name="HYBRID_DMU_10">HYBRID!$K$2:$K$42</definedName>
+    <definedName name="HYBRID_DMU_11">HYBRID!$L$2:$L$42</definedName>
+    <definedName name="HYBRID_DMU_12">HYBRID!$M$2:$M$42</definedName>
+    <definedName name="HYBRID_DMU_13">HYBRID!$N$2:$N$42</definedName>
+    <definedName name="HYBRID_DMU_14">HYBRID!$O$2:$O$42</definedName>
+    <definedName name="HYBRID_DMU_15">HYBRID!$P$2:$P$42</definedName>
+    <definedName name="HYBRID_DMU_16">HYBRID!$Q$2:$Q$42</definedName>
+    <definedName name="HYBRID_DMU_17">HYBRID!$R$2:$R$42</definedName>
+    <definedName name="HYBRID_DMU_18">HYBRID!$S$2:$S$42</definedName>
+    <definedName name="HYBRID_DMU_19">HYBRID!$T$2:$T$42</definedName>
+    <definedName name="HYBRID_DMU_2">HYBRID!$C$2:$C$42</definedName>
+    <definedName name="HYBRID_DMU_20">HYBRID!$U$2:$U$42</definedName>
+    <definedName name="HYBRID_DMU_21">HYBRID!$V$2:$V$42</definedName>
+    <definedName name="HYBRID_DMU_22">HYBRID!$W$2:$W$42</definedName>
+    <definedName name="HYBRID_DMU_23">HYBRID!$X$2:$X$42</definedName>
+    <definedName name="HYBRID_DMU_24">HYBRID!$Y$2:$Y$42</definedName>
+    <definedName name="HYBRID_DMU_25">HYBRID!$Z$2:$Z$42</definedName>
+    <definedName name="HYBRID_DMU_26">HYBRID!$AA$2:$AA$42</definedName>
+    <definedName name="HYBRID_DMU_27">HYBRID!$AB$2:$AB$42</definedName>
+    <definedName name="HYBRID_DMU_28">HYBRID!$AC$2:$AC$42</definedName>
+    <definedName name="HYBRID_DMU_29">HYBRID!$AD$2:$AD$42</definedName>
+    <definedName name="HYBRID_DMU_3">HYBRID!$D$2:$D$42</definedName>
+    <definedName name="HYBRID_DMU_30">HYBRID!$AE$2:$AE$42</definedName>
+    <definedName name="HYBRID_DMU_31">HYBRID!$AF$2:$AF$42</definedName>
+    <definedName name="HYBRID_DMU_32">HYBRID!$AG$2:$AG$42</definedName>
+    <definedName name="HYBRID_DMU_33">HYBRID!$AH$2:$AH$42</definedName>
+    <definedName name="HYBRID_DMU_34">HYBRID!$AI$2:$AI$42</definedName>
+    <definedName name="HYBRID_DMU_35">HYBRID!$AJ$2:$AJ$42</definedName>
+    <definedName name="HYBRID_DMU_36">HYBRID!$AK$2:$AK$42</definedName>
+    <definedName name="HYBRID_DMU_37">HYBRID!$AL$2:$AL$42</definedName>
+    <definedName name="HYBRID_DMU_4">HYBRID!$E$2:$E$42</definedName>
+    <definedName name="HYBRID_DMU_5">HYBRID!$F$2:$F$42</definedName>
+    <definedName name="HYBRID_DMU_6">HYBRID!$G$2:$G$42</definedName>
+    <definedName name="HYBRID_DMU_7">HYBRID!$H$2:$H$42</definedName>
+    <definedName name="HYBRID_DMU_8">HYBRID!$I$2:$I$42</definedName>
+    <definedName name="HYBRID_DMU_9">HYBRID!$J$2:$J$42</definedName>
     <definedName name="SBM_DMU_1">'SBM-DUAL'!$B$2:$B$8</definedName>
     <definedName name="SBM_DMU_10">'SBM-DUAL'!$K$2:$K$8</definedName>
     <definedName name="SBM_DMU_11">'SBM-DUAL'!$L$2:$L$8</definedName>
     <definedName name="SBM_DMU_12">'SBM-DUAL'!$M$2:$M$8</definedName>
     <definedName name="SBM_DMU_13">'SBM-DUAL'!$N$2:$N$8</definedName>
-    <definedName name="SBM_DMU_14">'SBM-DUAL'!#REF!</definedName>
-    <definedName name="SBM_DMU_15">'SBM-DUAL'!$O$2:$O$8</definedName>
-    <definedName name="SBM_DMU_16">'SBM-DUAL'!$P$2:$P$8</definedName>
-    <definedName name="SBM_DMU_17">'SBM-DUAL'!$Q$2:$Q$8</definedName>
-    <definedName name="SBM_DMU_18">'SBM-DUAL'!$R$2:$R$8</definedName>
-    <definedName name="SBM_DMU_19">'SBM-DUAL'!$S$2:$S$8</definedName>
+    <definedName name="SBM_DMU_14">'SBM-DUAL'!$O$2:$O$8</definedName>
+    <definedName name="SBM_DMU_15">'SBM-DUAL'!$P$2:$P$8</definedName>
+    <definedName name="SBM_DMU_16">'SBM-DUAL'!$Q$2:$Q$8</definedName>
+    <definedName name="SBM_DMU_17">'SBM-DUAL'!$R$2:$R$8</definedName>
+    <definedName name="SBM_DMU_18">'SBM-DUAL'!$S$2:$S$8</definedName>
+    <definedName name="SBM_DMU_19">'SBM-DUAL'!$T$2:$T$8</definedName>
     <definedName name="SBM_DMU_2">'SBM-DUAL'!$C$2:$C$8</definedName>
-    <definedName name="SBM_DMU_20">'SBM-DUAL'!$T$2:$T$8</definedName>
-    <definedName name="SBM_DMU_21">'SBM-DUAL'!$U$2:$U$8</definedName>
-    <definedName name="SBM_DMU_22">'SBM-DUAL'!$V$2:$V$8</definedName>
-    <definedName name="SBM_DMU_23">'SBM-DUAL'!$W$2:$W$8</definedName>
-    <definedName name="SBM_DMU_24">'SBM-DUAL'!$X$2:$X$8</definedName>
-    <definedName name="SBM_DMU_25">'SBM-DUAL'!$Y$2:$Y$8</definedName>
-    <definedName name="SBM_DMU_26">'SBM-DUAL'!$Z$2:$Z$8</definedName>
-    <definedName name="SBM_DMU_27">'SBM-DUAL'!$AA$2:$AA$8</definedName>
-    <definedName name="SBM_DMU_28">'SBM-DUAL'!$AB$2:$AB$8</definedName>
-    <definedName name="SBM_DMU_29">'SBM-DUAL'!$AC$2:$AC$8</definedName>
+    <definedName name="SBM_DMU_20">'SBM-DUAL'!$U$2:$U$8</definedName>
+    <definedName name="SBM_DMU_21">'SBM-DUAL'!$V$2:$V$8</definedName>
+    <definedName name="SBM_DMU_22">'SBM-DUAL'!$W$2:$W$8</definedName>
+    <definedName name="SBM_DMU_23">'SBM-DUAL'!$X$2:$X$8</definedName>
+    <definedName name="SBM_DMU_24">'SBM-DUAL'!$Y$2:$Y$8</definedName>
+    <definedName name="SBM_DMU_25">'SBM-DUAL'!$Z$2:$Z$8</definedName>
+    <definedName name="SBM_DMU_26">'SBM-DUAL'!$AA$2:$AA$8</definedName>
+    <definedName name="SBM_DMU_27">'SBM-DUAL'!$AB$2:$AB$8</definedName>
+    <definedName name="SBM_DMU_28">'SBM-DUAL'!$AC$2:$AC$8</definedName>
+    <definedName name="SBM_DMU_29">'SBM-DUAL'!$AD$2:$AD$8</definedName>
     <definedName name="SBM_DMU_3">'SBM-DUAL'!$D$2:$D$8</definedName>
-    <definedName name="SBM_DMU_30">'SBM-DUAL'!$AD$2:$AD$8</definedName>
-    <definedName name="SBM_DMU_31">'SBM-DUAL'!$AE$2:$AE$8</definedName>
-    <definedName name="SBM_DMU_32">'SBM-DUAL'!$AF$2:$AF$8</definedName>
-    <definedName name="SBM_DMU_33">'SBM-DUAL'!$AG$2:$AG$8</definedName>
-    <definedName name="SBM_DMU_34">'SBM-DUAL'!$AH$2:$AH$8</definedName>
-    <definedName name="SBM_DMU_35">'SBM-DUAL'!$AI$2:$AI$8</definedName>
-    <definedName name="SBM_DMU_36">'SBM-DUAL'!$AJ$2:$AJ$8</definedName>
-    <definedName name="SBM_DMU_37">'SBM-DUAL'!$AK$2:$AK$8</definedName>
+    <definedName name="SBM_DMU_30">'SBM-DUAL'!$AE$2:$AE$8</definedName>
+    <definedName name="SBM_DMU_31">'SBM-DUAL'!$AF$2:$AF$8</definedName>
+    <definedName name="SBM_DMU_32">'SBM-DUAL'!$AG$2:$AG$8</definedName>
+    <definedName name="SBM_DMU_33">'SBM-DUAL'!$AH$2:$AH$8</definedName>
+    <definedName name="SBM_DMU_34">'SBM-DUAL'!$AI$2:$AI$8</definedName>
+    <definedName name="SBM_DMU_35">'SBM-DUAL'!$AJ$2:$AJ$8</definedName>
+    <definedName name="SBM_DMU_36">'SBM-DUAL'!$AK$2:$AK$8</definedName>
+    <definedName name="SBM_DMU_37">'SBM-DUAL'!$AL$2:$AL$8</definedName>
     <definedName name="SBM_DMU_4">'SBM-DUAL'!$E$2:$E$8</definedName>
     <definedName name="SBM_DMU_5">'SBM-DUAL'!$F$2:$F$8</definedName>
     <definedName name="SBM_DMU_6">'SBM-DUAL'!$G$2:$G$8</definedName>
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="89">
   <si>
     <t>ANSPs</t>
   </si>
@@ -323,6 +323,9 @@
   </si>
   <si>
     <t>EANS</t>
+  </si>
+  <si>
+    <t>ENAIRE</t>
   </si>
   <si>
     <t>ENAV</t>
@@ -500,6 +503,9 @@
   </si>
   <si>
     <t>lambda_36</t>
+  </si>
+  <si>
+    <t>lambda_37</t>
   </si>
   <si>
     <t>s_meno_1</t>
@@ -951,10 +957,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK44"/>
+  <dimension ref="A1:AL45"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AK45"/>
+    <sheetView tabSelected="1" topLeftCell="O34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:AM227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -962,15 +968,15 @@
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="17" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="27" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="18" bestFit="1" customWidth="1"/>
-    <col min="30" max="37" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="18" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="28" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18" bestFit="1" customWidth="1"/>
+    <col min="31" max="38" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1082,10 +1088,13 @@
       <c r="AK1" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -1123,10 +1132,11 @@
       <c r="AI2" s="8"/>
       <c r="AJ2" s="8"/>
       <c r="AK2" s="8"/>
-    </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL2" s="8"/>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -1164,10 +1174,11 @@
       <c r="AI3" s="8"/>
       <c r="AJ3" s="8"/>
       <c r="AK3" s="8"/>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL3" s="8"/>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -1205,10 +1216,11 @@
       <c r="AI4" s="8"/>
       <c r="AJ4" s="8"/>
       <c r="AK4" s="8"/>
-    </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL4" s="8"/>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -1246,10 +1258,11 @@
       <c r="AI5" s="8"/>
       <c r="AJ5" s="8"/>
       <c r="AK5" s="8"/>
-    </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL5" s="8"/>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -1287,10 +1300,11 @@
       <c r="AI6" s="8"/>
       <c r="AJ6" s="8"/>
       <c r="AK6" s="8"/>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL6" s="8"/>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -1328,10 +1342,11 @@
       <c r="AI7" s="8"/>
       <c r="AJ7" s="8"/>
       <c r="AK7" s="8"/>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL7" s="8"/>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -1369,10 +1384,11 @@
       <c r="AI8" s="8"/>
       <c r="AJ8" s="8"/>
       <c r="AK8" s="8"/>
-    </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL8" s="8"/>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -1410,10 +1426,11 @@
       <c r="AI9" s="8"/>
       <c r="AJ9" s="8"/>
       <c r="AK9" s="8"/>
-    </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL9" s="8"/>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -1451,10 +1468,11 @@
       <c r="AI10" s="8"/>
       <c r="AJ10" s="8"/>
       <c r="AK10" s="8"/>
-    </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL10" s="8"/>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -1492,10 +1510,11 @@
       <c r="AI11" s="8"/>
       <c r="AJ11" s="8"/>
       <c r="AK11" s="8"/>
-    </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL11" s="8"/>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -1533,10 +1552,11 @@
       <c r="AI12" s="8"/>
       <c r="AJ12" s="8"/>
       <c r="AK12" s="8"/>
-    </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL12" s="8"/>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -1574,10 +1594,11 @@
       <c r="AI13" s="8"/>
       <c r="AJ13" s="8"/>
       <c r="AK13" s="8"/>
-    </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL13" s="8"/>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -1615,10 +1636,11 @@
       <c r="AI14" s="8"/>
       <c r="AJ14" s="8"/>
       <c r="AK14" s="8"/>
-    </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL14" s="8"/>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -1656,10 +1678,11 @@
       <c r="AI15" s="8"/>
       <c r="AJ15" s="8"/>
       <c r="AK15" s="8"/>
-    </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL15" s="8"/>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -1697,10 +1720,11 @@
       <c r="AI16" s="8"/>
       <c r="AJ16" s="8"/>
       <c r="AK16" s="8"/>
-    </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL16" s="8"/>
+    </row>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -1738,10 +1762,11 @@
       <c r="AI17" s="8"/>
       <c r="AJ17" s="8"/>
       <c r="AK17" s="8"/>
-    </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL17" s="8"/>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -1779,10 +1804,11 @@
       <c r="AI18" s="8"/>
       <c r="AJ18" s="8"/>
       <c r="AK18" s="8"/>
-    </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL18" s="8"/>
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -1820,10 +1846,11 @@
       <c r="AI19" s="8"/>
       <c r="AJ19" s="8"/>
       <c r="AK19" s="8"/>
-    </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL19" s="8"/>
+    </row>
+    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -1861,10 +1888,11 @@
       <c r="AI20" s="8"/>
       <c r="AJ20" s="8"/>
       <c r="AK20" s="8"/>
-    </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL20" s="8"/>
+    </row>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -1902,10 +1930,11 @@
       <c r="AI21" s="8"/>
       <c r="AJ21" s="8"/>
       <c r="AK21" s="8"/>
-    </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL21" s="8"/>
+    </row>
+    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -1943,10 +1972,11 @@
       <c r="AI22" s="8"/>
       <c r="AJ22" s="8"/>
       <c r="AK22" s="8"/>
-    </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL22" s="8"/>
+    </row>
+    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -1984,10 +2014,11 @@
       <c r="AI23" s="8"/>
       <c r="AJ23" s="8"/>
       <c r="AK23" s="8"/>
-    </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL23" s="8"/>
+    </row>
+    <row r="24" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -2025,10 +2056,11 @@
       <c r="AI24" s="8"/>
       <c r="AJ24" s="8"/>
       <c r="AK24" s="8"/>
-    </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL24" s="8"/>
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -2066,10 +2098,11 @@
       <c r="AI25" s="8"/>
       <c r="AJ25" s="8"/>
       <c r="AK25" s="8"/>
-    </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL25" s="8"/>
+    </row>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -2107,10 +2140,11 @@
       <c r="AI26" s="8"/>
       <c r="AJ26" s="8"/>
       <c r="AK26" s="8"/>
-    </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL26" s="8"/>
+    </row>
+    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -2148,10 +2182,11 @@
       <c r="AI27" s="8"/>
       <c r="AJ27" s="8"/>
       <c r="AK27" s="8"/>
-    </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL27" s="8"/>
+    </row>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -2189,10 +2224,11 @@
       <c r="AI28" s="8"/>
       <c r="AJ28" s="8"/>
       <c r="AK28" s="8"/>
-    </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL28" s="8"/>
+    </row>
+    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -2230,10 +2266,11 @@
       <c r="AI29" s="8"/>
       <c r="AJ29" s="8"/>
       <c r="AK29" s="8"/>
-    </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL29" s="8"/>
+    </row>
+    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -2271,10 +2308,11 @@
       <c r="AI30" s="8"/>
       <c r="AJ30" s="8"/>
       <c r="AK30" s="8"/>
-    </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL30" s="8"/>
+    </row>
+    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -2312,10 +2350,11 @@
       <c r="AI31" s="8"/>
       <c r="AJ31" s="8"/>
       <c r="AK31" s="8"/>
-    </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL31" s="8"/>
+    </row>
+    <row r="32" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -2353,10 +2392,11 @@
       <c r="AI32" s="8"/>
       <c r="AJ32" s="8"/>
       <c r="AK32" s="8"/>
-    </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL32" s="8"/>
+    </row>
+    <row r="33" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -2394,10 +2434,11 @@
       <c r="AI33" s="8"/>
       <c r="AJ33" s="8"/>
       <c r="AK33" s="8"/>
-    </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL33" s="8"/>
+    </row>
+    <row r="34" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -2435,10 +2476,11 @@
       <c r="AI34" s="8"/>
       <c r="AJ34" s="8"/>
       <c r="AK34" s="8"/>
-    </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL34" s="8"/>
+    </row>
+    <row r="35" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -2476,10 +2518,11 @@
       <c r="AI35" s="8"/>
       <c r="AJ35" s="8"/>
       <c r="AK35" s="8"/>
-    </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL35" s="8"/>
+    </row>
+    <row r="36" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -2517,10 +2560,11 @@
       <c r="AI36" s="8"/>
       <c r="AJ36" s="8"/>
       <c r="AK36" s="8"/>
-    </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL36" s="8"/>
+    </row>
+    <row r="37" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -2558,10 +2602,11 @@
       <c r="AI37" s="8"/>
       <c r="AJ37" s="8"/>
       <c r="AK37" s="8"/>
-    </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>73</v>
+      <c r="AL37" s="8"/>
+    </row>
+    <row r="38" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -2599,10 +2644,11 @@
       <c r="AI38" s="8"/>
       <c r="AJ38" s="8"/>
       <c r="AK38" s="8"/>
-    </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL38" s="8"/>
+    </row>
+    <row r="39" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -2640,10 +2686,11 @@
       <c r="AI39" s="8"/>
       <c r="AJ39" s="8"/>
       <c r="AK39" s="8"/>
-    </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL39" s="8"/>
+    </row>
+    <row r="40" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -2681,10 +2728,11 @@
       <c r="AI40" s="8"/>
       <c r="AJ40" s="8"/>
       <c r="AK40" s="8"/>
-    </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL40" s="8"/>
+    </row>
+    <row r="41" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -2722,10 +2770,11 @@
       <c r="AI41" s="8"/>
       <c r="AJ41" s="8"/>
       <c r="AK41" s="8"/>
-    </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL41" s="8"/>
+    </row>
+    <row r="42" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -2763,88 +2812,133 @@
       <c r="AI42" s="8"/>
       <c r="AJ42" s="8"/>
       <c r="AK42" s="8"/>
-    </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL42" s="8"/>
+    </row>
+    <row r="43" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9"/>
-      <c r="M43" s="9"/>
-      <c r="N43" s="9"/>
-      <c r="O43" s="9"/>
-      <c r="P43" s="9"/>
-      <c r="Q43" s="9"/>
-      <c r="R43" s="9"/>
-      <c r="S43" s="9"/>
-      <c r="T43" s="9"/>
-      <c r="U43" s="9"/>
-      <c r="V43" s="9"/>
-      <c r="W43" s="9"/>
-      <c r="X43" s="9"/>
-      <c r="Y43" s="9"/>
-      <c r="Z43" s="9"/>
-      <c r="AA43" s="9"/>
-      <c r="AB43" s="9"/>
-      <c r="AC43" s="9"/>
-      <c r="AD43" s="9"/>
-      <c r="AE43" s="9"/>
-      <c r="AF43" s="9"/>
-      <c r="AG43" s="9"/>
-      <c r="AH43" s="9"/>
-      <c r="AI43" s="9"/>
-      <c r="AJ43" s="9"/>
-      <c r="AK43" s="9"/>
-    </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="8"/>
+      <c r="R43" s="8"/>
+      <c r="S43" s="8"/>
+      <c r="T43" s="8"/>
+      <c r="U43" s="8"/>
+      <c r="V43" s="8"/>
+      <c r="W43" s="8"/>
+      <c r="X43" s="8"/>
+      <c r="Y43" s="8"/>
+      <c r="Z43" s="8"/>
+      <c r="AA43" s="8"/>
+      <c r="AB43" s="8"/>
+      <c r="AC43" s="8"/>
+      <c r="AD43" s="8"/>
+      <c r="AE43" s="8"/>
+      <c r="AF43" s="8"/>
+      <c r="AG43" s="8"/>
+      <c r="AH43" s="8"/>
+      <c r="AI43" s="8"/>
+      <c r="AJ43" s="8"/>
+      <c r="AK43" s="8"/>
+      <c r="AL43" s="8"/>
+    </row>
+    <row r="44" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
-      <c r="R44" s="2"/>
-      <c r="S44" s="2"/>
-      <c r="T44" s="2"/>
-      <c r="U44" s="2"/>
-      <c r="V44" s="2"/>
-      <c r="W44" s="2"/>
-      <c r="X44" s="2"/>
-      <c r="Y44" s="2"/>
-      <c r="Z44" s="2"/>
-      <c r="AA44" s="2"/>
-      <c r="AB44" s="2"/>
-      <c r="AC44" s="2"/>
-      <c r="AD44" s="2"/>
-      <c r="AE44" s="2"/>
-      <c r="AF44" s="2"/>
-      <c r="AG44" s="2"/>
-      <c r="AH44" s="2"/>
-      <c r="AI44" s="2"/>
-      <c r="AJ44" s="2"/>
-      <c r="AK44" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="9"/>
+      <c r="P44" s="9"/>
+      <c r="Q44" s="9"/>
+      <c r="R44" s="9"/>
+      <c r="S44" s="9"/>
+      <c r="T44" s="9"/>
+      <c r="U44" s="9"/>
+      <c r="V44" s="9"/>
+      <c r="W44" s="9"/>
+      <c r="X44" s="9"/>
+      <c r="Y44" s="9"/>
+      <c r="Z44" s="9"/>
+      <c r="AA44" s="9"/>
+      <c r="AB44" s="9"/>
+      <c r="AC44" s="9"/>
+      <c r="AD44" s="9"/>
+      <c r="AE44" s="9"/>
+      <c r="AF44" s="9"/>
+      <c r="AG44" s="9"/>
+      <c r="AH44" s="9"/>
+      <c r="AI44" s="9"/>
+      <c r="AJ44" s="9"/>
+      <c r="AK44" s="9"/>
+      <c r="AL44" s="9"/>
+    </row>
+    <row r="45" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="2"/>
+      <c r="U45" s="2"/>
+      <c r="V45" s="2"/>
+      <c r="W45" s="2"/>
+      <c r="X45" s="2"/>
+      <c r="Y45" s="2"/>
+      <c r="Z45" s="2"/>
+      <c r="AA45" s="2"/>
+      <c r="AB45" s="2"/>
+      <c r="AC45" s="2"/>
+      <c r="AD45" s="2"/>
+      <c r="AE45" s="2"/>
+      <c r="AF45" s="2"/>
+      <c r="AG45" s="2"/>
+      <c r="AH45" s="2"/>
+      <c r="AI45" s="2"/>
+      <c r="AJ45" s="2"/>
+      <c r="AK45" s="2"/>
+      <c r="AL45" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2854,10 +2948,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK44"/>
+  <dimension ref="A1:AL45"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AK45"/>
+      <selection activeCell="B2" sqref="B2:AL46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2871,15 +2965,15 @@
     <col min="7" max="9" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.21875" bestFit="1" customWidth="1"/>
     <col min="11" max="14" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="20" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="27" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="29" max="37" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="21" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="28" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="30" max="38" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2991,10 +3085,13 @@
       <c r="AK1" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -3032,10 +3129,11 @@
       <c r="AI2" s="5"/>
       <c r="AJ2" s="5"/>
       <c r="AK2" s="5"/>
-    </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL2" s="5"/>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -3073,10 +3171,11 @@
       <c r="AI3" s="5"/>
       <c r="AJ3" s="5"/>
       <c r="AK3" s="5"/>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL3" s="5"/>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -3114,10 +3213,11 @@
       <c r="AI4" s="5"/>
       <c r="AJ4" s="5"/>
       <c r="AK4" s="5"/>
-    </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL4" s="5"/>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -3155,10 +3255,11 @@
       <c r="AI5" s="5"/>
       <c r="AJ5" s="5"/>
       <c r="AK5" s="5"/>
-    </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL5" s="5"/>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -3196,10 +3297,11 @@
       <c r="AI6" s="5"/>
       <c r="AJ6" s="5"/>
       <c r="AK6" s="5"/>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL6" s="5"/>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -3237,10 +3339,11 @@
       <c r="AI7" s="5"/>
       <c r="AJ7" s="5"/>
       <c r="AK7" s="5"/>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL7" s="5"/>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -3278,10 +3381,11 @@
       <c r="AI8" s="5"/>
       <c r="AJ8" s="5"/>
       <c r="AK8" s="5"/>
-    </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL8" s="5"/>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -3319,10 +3423,11 @@
       <c r="AI9" s="5"/>
       <c r="AJ9" s="5"/>
       <c r="AK9" s="5"/>
-    </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL9" s="5"/>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -3360,10 +3465,11 @@
       <c r="AI10" s="5"/>
       <c r="AJ10" s="5"/>
       <c r="AK10" s="5"/>
-    </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL10" s="5"/>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -3401,10 +3507,11 @@
       <c r="AI11" s="5"/>
       <c r="AJ11" s="5"/>
       <c r="AK11" s="5"/>
-    </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL11" s="5"/>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -3442,10 +3549,11 @@
       <c r="AI12" s="5"/>
       <c r="AJ12" s="5"/>
       <c r="AK12" s="5"/>
-    </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL12" s="5"/>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -3483,10 +3591,11 @@
       <c r="AI13" s="5"/>
       <c r="AJ13" s="5"/>
       <c r="AK13" s="5"/>
-    </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL13" s="5"/>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -3524,10 +3633,11 @@
       <c r="AI14" s="5"/>
       <c r="AJ14" s="5"/>
       <c r="AK14" s="5"/>
-    </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL14" s="5"/>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -3565,10 +3675,11 @@
       <c r="AI15" s="5"/>
       <c r="AJ15" s="5"/>
       <c r="AK15" s="5"/>
-    </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL15" s="5"/>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -3606,10 +3717,11 @@
       <c r="AI16" s="5"/>
       <c r="AJ16" s="5"/>
       <c r="AK16" s="5"/>
-    </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL16" s="5"/>
+    </row>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -3647,10 +3759,11 @@
       <c r="AI17" s="5"/>
       <c r="AJ17" s="5"/>
       <c r="AK17" s="5"/>
-    </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL17" s="5"/>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -3688,10 +3801,11 @@
       <c r="AI18" s="5"/>
       <c r="AJ18" s="5"/>
       <c r="AK18" s="5"/>
-    </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL18" s="5"/>
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -3729,10 +3843,11 @@
       <c r="AI19" s="5"/>
       <c r="AJ19" s="5"/>
       <c r="AK19" s="5"/>
-    </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL19" s="5"/>
+    </row>
+    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -3770,10 +3885,11 @@
       <c r="AI20" s="5"/>
       <c r="AJ20" s="5"/>
       <c r="AK20" s="5"/>
-    </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL20" s="5"/>
+    </row>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -3811,10 +3927,11 @@
       <c r="AI21" s="5"/>
       <c r="AJ21" s="5"/>
       <c r="AK21" s="5"/>
-    </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL21" s="5"/>
+    </row>
+    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -3852,10 +3969,11 @@
       <c r="AI22" s="5"/>
       <c r="AJ22" s="5"/>
       <c r="AK22" s="5"/>
-    </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL22" s="5"/>
+    </row>
+    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -3893,10 +4011,11 @@
       <c r="AI23" s="5"/>
       <c r="AJ23" s="5"/>
       <c r="AK23" s="5"/>
-    </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL23" s="5"/>
+    </row>
+    <row r="24" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -3934,10 +4053,11 @@
       <c r="AI24" s="5"/>
       <c r="AJ24" s="5"/>
       <c r="AK24" s="5"/>
-    </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL24" s="5"/>
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -3975,10 +4095,11 @@
       <c r="AI25" s="5"/>
       <c r="AJ25" s="5"/>
       <c r="AK25" s="5"/>
-    </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL25" s="5"/>
+    </row>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -4016,10 +4137,11 @@
       <c r="AI26" s="5"/>
       <c r="AJ26" s="5"/>
       <c r="AK26" s="5"/>
-    </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL26" s="5"/>
+    </row>
+    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -4057,10 +4179,11 @@
       <c r="AI27" s="5"/>
       <c r="AJ27" s="5"/>
       <c r="AK27" s="5"/>
-    </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL27" s="5"/>
+    </row>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -4098,10 +4221,11 @@
       <c r="AI28" s="5"/>
       <c r="AJ28" s="5"/>
       <c r="AK28" s="5"/>
-    </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL28" s="5"/>
+    </row>
+    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -4139,10 +4263,11 @@
       <c r="AI29" s="5"/>
       <c r="AJ29" s="5"/>
       <c r="AK29" s="5"/>
-    </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL29" s="5"/>
+    </row>
+    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -4180,10 +4305,11 @@
       <c r="AI30" s="5"/>
       <c r="AJ30" s="5"/>
       <c r="AK30" s="5"/>
-    </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL30" s="5"/>
+    </row>
+    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -4221,10 +4347,11 @@
       <c r="AI31" s="5"/>
       <c r="AJ31" s="5"/>
       <c r="AK31" s="5"/>
-    </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL31" s="5"/>
+    </row>
+    <row r="32" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -4262,10 +4389,11 @@
       <c r="AI32" s="5"/>
       <c r="AJ32" s="5"/>
       <c r="AK32" s="5"/>
-    </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL32" s="5"/>
+    </row>
+    <row r="33" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -4303,10 +4431,11 @@
       <c r="AI33" s="5"/>
       <c r="AJ33" s="5"/>
       <c r="AK33" s="5"/>
-    </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL33" s="5"/>
+    </row>
+    <row r="34" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -4344,10 +4473,11 @@
       <c r="AI34" s="5"/>
       <c r="AJ34" s="5"/>
       <c r="AK34" s="5"/>
-    </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL34" s="5"/>
+    </row>
+    <row r="35" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -4385,10 +4515,11 @@
       <c r="AI35" s="5"/>
       <c r="AJ35" s="5"/>
       <c r="AK35" s="5"/>
-    </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL35" s="5"/>
+    </row>
+    <row r="36" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -4426,10 +4557,11 @@
       <c r="AI36" s="5"/>
       <c r="AJ36" s="5"/>
       <c r="AK36" s="5"/>
-    </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL36" s="5"/>
+    </row>
+    <row r="37" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -4467,71 +4599,73 @@
       <c r="AI37" s="5"/>
       <c r="AJ37" s="5"/>
       <c r="AK37" s="5"/>
-    </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
-      <c r="O38" s="6"/>
-      <c r="P38" s="6"/>
-      <c r="Q38" s="6"/>
-      <c r="R38" s="6"/>
-      <c r="S38" s="6"/>
-      <c r="T38" s="6"/>
-      <c r="U38" s="6"/>
-      <c r="V38" s="6"/>
-      <c r="W38" s="6"/>
-      <c r="X38" s="6"/>
-      <c r="Y38" s="6"/>
-      <c r="Z38" s="6"/>
-      <c r="AA38" s="6"/>
-      <c r="AB38" s="6"/>
-      <c r="AC38" s="6"/>
-      <c r="AD38" s="6"/>
-      <c r="AE38" s="6"/>
-      <c r="AF38" s="6"/>
-      <c r="AG38" s="6"/>
-      <c r="AH38" s="6"/>
-      <c r="AI38" s="6"/>
-      <c r="AJ38" s="6"/>
-      <c r="AK38" s="6"/>
-    </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL37" s="5"/>
+    </row>
+    <row r="38" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="5"/>
+      <c r="X38" s="5"/>
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="5"/>
+      <c r="AA38" s="5"/>
+      <c r="AB38" s="5"/>
+      <c r="AC38" s="5"/>
+      <c r="AD38" s="5"/>
+      <c r="AE38" s="5"/>
+      <c r="AF38" s="5"/>
+      <c r="AG38" s="5"/>
+      <c r="AH38" s="5"/>
+      <c r="AI38" s="5"/>
+      <c r="AJ38" s="5"/>
+      <c r="AK38" s="5"/>
+      <c r="AL38" s="5"/>
+    </row>
+    <row r="39" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
-      <c r="E39" s="7"/>
+      <c r="E39" s="6"/>
       <c r="F39" s="6"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
       <c r="O39" s="6"/>
-      <c r="P39" s="7"/>
-      <c r="Q39" s="7"/>
-      <c r="R39" s="7"/>
-      <c r="S39" s="7"/>
-      <c r="T39" s="7"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="6"/>
+      <c r="T39" s="6"/>
       <c r="U39" s="6"/>
       <c r="V39" s="6"/>
       <c r="W39" s="6"/>
@@ -4541,18 +4675,19 @@
       <c r="AA39" s="6"/>
       <c r="AB39" s="6"/>
       <c r="AC39" s="6"/>
-      <c r="AD39" s="7"/>
+      <c r="AD39" s="6"/>
       <c r="AE39" s="6"/>
-      <c r="AF39" s="7"/>
-      <c r="AG39" s="7"/>
+      <c r="AF39" s="6"/>
+      <c r="AG39" s="6"/>
       <c r="AH39" s="6"/>
       <c r="AI39" s="6"/>
-      <c r="AJ39" s="7"/>
-      <c r="AK39" s="7"/>
-    </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AJ39" s="6"/>
+      <c r="AK39" s="6"/>
+      <c r="AL39" s="6"/>
+    </row>
+    <row r="40" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -4567,13 +4702,13 @@
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="6"/>
       <c r="Q40" s="7"/>
       <c r="R40" s="7"/>
       <c r="S40" s="7"/>
       <c r="T40" s="7"/>
-      <c r="U40" s="6"/>
+      <c r="U40" s="7"/>
       <c r="V40" s="6"/>
       <c r="W40" s="6"/>
       <c r="X40" s="6"/>
@@ -4582,59 +4717,61 @@
       <c r="AA40" s="6"/>
       <c r="AB40" s="6"/>
       <c r="AC40" s="6"/>
-      <c r="AD40" s="7"/>
-      <c r="AE40" s="6"/>
-      <c r="AF40" s="7"/>
+      <c r="AD40" s="6"/>
+      <c r="AE40" s="7"/>
+      <c r="AF40" s="6"/>
       <c r="AG40" s="7"/>
-      <c r="AH40" s="6"/>
+      <c r="AH40" s="7"/>
       <c r="AI40" s="6"/>
-      <c r="AJ40" s="7"/>
+      <c r="AJ40" s="6"/>
       <c r="AK40" s="7"/>
-    </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL40" s="7"/>
+    </row>
+    <row r="41" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="5"/>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="5"/>
-      <c r="R41" s="5"/>
-      <c r="S41" s="5"/>
-      <c r="T41" s="5"/>
-      <c r="U41" s="5"/>
-      <c r="V41" s="5"/>
-      <c r="W41" s="5"/>
-      <c r="X41" s="5"/>
-      <c r="Y41" s="5"/>
-      <c r="Z41" s="5"/>
-      <c r="AA41" s="5"/>
-      <c r="AB41" s="5"/>
-      <c r="AC41" s="5"/>
-      <c r="AD41" s="5"/>
-      <c r="AE41" s="5"/>
-      <c r="AF41" s="5"/>
-      <c r="AG41" s="5"/>
-      <c r="AH41" s="5"/>
-      <c r="AI41" s="5"/>
-      <c r="AJ41" s="5"/>
-      <c r="AK41" s="5"/>
-    </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7"/>
+      <c r="S41" s="7"/>
+      <c r="T41" s="7"/>
+      <c r="U41" s="7"/>
+      <c r="V41" s="6"/>
+      <c r="W41" s="6"/>
+      <c r="X41" s="6"/>
+      <c r="Y41" s="6"/>
+      <c r="Z41" s="6"/>
+      <c r="AA41" s="6"/>
+      <c r="AB41" s="6"/>
+      <c r="AC41" s="6"/>
+      <c r="AD41" s="6"/>
+      <c r="AE41" s="7"/>
+      <c r="AF41" s="6"/>
+      <c r="AG41" s="7"/>
+      <c r="AH41" s="7"/>
+      <c r="AI41" s="6"/>
+      <c r="AJ41" s="6"/>
+      <c r="AK41" s="7"/>
+      <c r="AL41" s="7"/>
+    </row>
+    <row r="42" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -4672,88 +4809,133 @@
       <c r="AI42" s="5"/>
       <c r="AJ42" s="5"/>
       <c r="AK42" s="5"/>
-    </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL42" s="5"/>
+    </row>
+    <row r="43" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4"/>
-      <c r="O43" s="4"/>
-      <c r="P43" s="4"/>
-      <c r="Q43" s="4"/>
-      <c r="R43" s="4"/>
-      <c r="S43" s="4"/>
-      <c r="T43" s="4"/>
-      <c r="U43" s="4"/>
-      <c r="V43" s="4"/>
-      <c r="W43" s="4"/>
-      <c r="X43" s="4"/>
-      <c r="Y43" s="4"/>
-      <c r="Z43" s="4"/>
-      <c r="AA43" s="4"/>
-      <c r="AB43" s="4"/>
-      <c r="AC43" s="4"/>
-      <c r="AD43" s="4"/>
-      <c r="AE43" s="4"/>
-      <c r="AF43" s="4"/>
-      <c r="AG43" s="4"/>
-      <c r="AH43" s="4"/>
-      <c r="AI43" s="4"/>
-      <c r="AJ43" s="4"/>
-      <c r="AK43" s="4"/>
-    </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="5"/>
+      <c r="S43" s="5"/>
+      <c r="T43" s="5"/>
+      <c r="U43" s="5"/>
+      <c r="V43" s="5"/>
+      <c r="W43" s="5"/>
+      <c r="X43" s="5"/>
+      <c r="Y43" s="5"/>
+      <c r="Z43" s="5"/>
+      <c r="AA43" s="5"/>
+      <c r="AB43" s="5"/>
+      <c r="AC43" s="5"/>
+      <c r="AD43" s="5"/>
+      <c r="AE43" s="5"/>
+      <c r="AF43" s="5"/>
+      <c r="AG43" s="5"/>
+      <c r="AH43" s="5"/>
+      <c r="AI43" s="5"/>
+      <c r="AJ43" s="5"/>
+      <c r="AK43" s="5"/>
+      <c r="AL43" s="5"/>
+    </row>
+    <row r="44" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
-      <c r="R44" s="2"/>
-      <c r="S44" s="2"/>
-      <c r="T44" s="2"/>
-      <c r="U44" s="2"/>
-      <c r="V44" s="2"/>
-      <c r="W44" s="2"/>
-      <c r="X44" s="2"/>
-      <c r="Y44" s="2"/>
-      <c r="Z44" s="2"/>
-      <c r="AA44" s="2"/>
-      <c r="AB44" s="2"/>
-      <c r="AC44" s="2"/>
-      <c r="AD44" s="2"/>
-      <c r="AE44" s="2"/>
-      <c r="AF44" s="2"/>
-      <c r="AG44" s="2"/>
-      <c r="AH44" s="2"/>
-      <c r="AI44" s="2"/>
-      <c r="AJ44" s="2"/>
-      <c r="AK44" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="4"/>
+      <c r="U44" s="4"/>
+      <c r="V44" s="4"/>
+      <c r="W44" s="4"/>
+      <c r="X44" s="4"/>
+      <c r="Y44" s="4"/>
+      <c r="Z44" s="4"/>
+      <c r="AA44" s="4"/>
+      <c r="AB44" s="4"/>
+      <c r="AC44" s="4"/>
+      <c r="AD44" s="4"/>
+      <c r="AE44" s="4"/>
+      <c r="AF44" s="4"/>
+      <c r="AG44" s="4"/>
+      <c r="AH44" s="4"/>
+      <c r="AI44" s="4"/>
+      <c r="AJ44" s="4"/>
+      <c r="AK44" s="4"/>
+      <c r="AL44" s="4"/>
+    </row>
+    <row r="45" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="2"/>
+      <c r="U45" s="2"/>
+      <c r="V45" s="2"/>
+      <c r="W45" s="2"/>
+      <c r="X45" s="2"/>
+      <c r="Y45" s="2"/>
+      <c r="Z45" s="2"/>
+      <c r="AA45" s="2"/>
+      <c r="AB45" s="2"/>
+      <c r="AC45" s="2"/>
+      <c r="AD45" s="2"/>
+      <c r="AE45" s="2"/>
+      <c r="AF45" s="2"/>
+      <c r="AG45" s="2"/>
+      <c r="AH45" s="2"/>
+      <c r="AI45" s="2"/>
+      <c r="AJ45" s="2"/>
+      <c r="AK45" s="2"/>
+      <c r="AL45" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4762,10 +4944,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK44"/>
+  <dimension ref="A1:AL45"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AY45"/>
+      <selection activeCell="B2" sqref="B2:AR95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4783,30 +4965,31 @@
     <col min="12" max="12" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.77734375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="3.88671875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="3.77734375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3.77734375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="3.77734375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="8.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4918,10 +5101,13 @@
       <c r="AK1" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -4959,10 +5145,11 @@
       <c r="AI2" s="5"/>
       <c r="AJ2" s="5"/>
       <c r="AK2" s="5"/>
-    </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL2" s="5"/>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -5000,10 +5187,11 @@
       <c r="AI3" s="5"/>
       <c r="AJ3" s="5"/>
       <c r="AK3" s="5"/>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL3" s="5"/>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -5041,10 +5229,11 @@
       <c r="AI4" s="5"/>
       <c r="AJ4" s="5"/>
       <c r="AK4" s="5"/>
-    </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL4" s="5"/>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -5082,10 +5271,11 @@
       <c r="AI5" s="5"/>
       <c r="AJ5" s="5"/>
       <c r="AK5" s="5"/>
-    </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL5" s="5"/>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -5123,10 +5313,11 @@
       <c r="AI6" s="5"/>
       <c r="AJ6" s="5"/>
       <c r="AK6" s="5"/>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL6" s="5"/>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -5164,10 +5355,11 @@
       <c r="AI7" s="5"/>
       <c r="AJ7" s="5"/>
       <c r="AK7" s="5"/>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL7" s="5"/>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -5205,10 +5397,11 @@
       <c r="AI8" s="5"/>
       <c r="AJ8" s="5"/>
       <c r="AK8" s="5"/>
-    </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL8" s="5"/>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -5246,10 +5439,11 @@
       <c r="AI9" s="5"/>
       <c r="AJ9" s="5"/>
       <c r="AK9" s="5"/>
-    </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL9" s="5"/>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -5287,10 +5481,11 @@
       <c r="AI10" s="5"/>
       <c r="AJ10" s="5"/>
       <c r="AK10" s="5"/>
-    </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL10" s="5"/>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -5328,10 +5523,11 @@
       <c r="AI11" s="5"/>
       <c r="AJ11" s="5"/>
       <c r="AK11" s="5"/>
-    </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL11" s="5"/>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -5369,10 +5565,11 @@
       <c r="AI12" s="5"/>
       <c r="AJ12" s="5"/>
       <c r="AK12" s="5"/>
-    </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL12" s="5"/>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -5410,10 +5607,11 @@
       <c r="AI13" s="5"/>
       <c r="AJ13" s="5"/>
       <c r="AK13" s="5"/>
-    </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL13" s="5"/>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -5451,10 +5649,11 @@
       <c r="AI14" s="5"/>
       <c r="AJ14" s="5"/>
       <c r="AK14" s="5"/>
-    </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL14" s="5"/>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -5492,10 +5691,11 @@
       <c r="AI15" s="5"/>
       <c r="AJ15" s="5"/>
       <c r="AK15" s="5"/>
-    </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL15" s="5"/>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -5533,10 +5733,11 @@
       <c r="AI16" s="5"/>
       <c r="AJ16" s="5"/>
       <c r="AK16" s="5"/>
-    </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL16" s="5"/>
+    </row>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -5574,10 +5775,11 @@
       <c r="AI17" s="5"/>
       <c r="AJ17" s="5"/>
       <c r="AK17" s="5"/>
-    </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL17" s="5"/>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -5615,10 +5817,11 @@
       <c r="AI18" s="5"/>
       <c r="AJ18" s="5"/>
       <c r="AK18" s="5"/>
-    </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL18" s="5"/>
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -5656,10 +5859,11 @@
       <c r="AI19" s="5"/>
       <c r="AJ19" s="5"/>
       <c r="AK19" s="5"/>
-    </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL19" s="5"/>
+    </row>
+    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -5697,10 +5901,11 @@
       <c r="AI20" s="5"/>
       <c r="AJ20" s="5"/>
       <c r="AK20" s="5"/>
-    </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL20" s="5"/>
+    </row>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -5738,10 +5943,11 @@
       <c r="AI21" s="5"/>
       <c r="AJ21" s="5"/>
       <c r="AK21" s="5"/>
-    </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL21" s="5"/>
+    </row>
+    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -5779,10 +5985,11 @@
       <c r="AI22" s="5"/>
       <c r="AJ22" s="5"/>
       <c r="AK22" s="5"/>
-    </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL22" s="5"/>
+    </row>
+    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -5820,10 +6027,11 @@
       <c r="AI23" s="5"/>
       <c r="AJ23" s="5"/>
       <c r="AK23" s="5"/>
-    </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL23" s="5"/>
+    </row>
+    <row r="24" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -5861,10 +6069,11 @@
       <c r="AI24" s="5"/>
       <c r="AJ24" s="5"/>
       <c r="AK24" s="5"/>
-    </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL24" s="5"/>
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -5902,10 +6111,11 @@
       <c r="AI25" s="5"/>
       <c r="AJ25" s="5"/>
       <c r="AK25" s="5"/>
-    </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL25" s="5"/>
+    </row>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -5943,10 +6153,11 @@
       <c r="AI26" s="5"/>
       <c r="AJ26" s="5"/>
       <c r="AK26" s="5"/>
-    </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL26" s="5"/>
+    </row>
+    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -5984,10 +6195,11 @@
       <c r="AI27" s="5"/>
       <c r="AJ27" s="5"/>
       <c r="AK27" s="5"/>
-    </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL27" s="5"/>
+    </row>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -6025,10 +6237,11 @@
       <c r="AI28" s="5"/>
       <c r="AJ28" s="5"/>
       <c r="AK28" s="5"/>
-    </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL28" s="5"/>
+    </row>
+    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -6066,10 +6279,11 @@
       <c r="AI29" s="5"/>
       <c r="AJ29" s="5"/>
       <c r="AK29" s="5"/>
-    </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL29" s="5"/>
+    </row>
+    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -6107,10 +6321,11 @@
       <c r="AI30" s="5"/>
       <c r="AJ30" s="5"/>
       <c r="AK30" s="5"/>
-    </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL30" s="5"/>
+    </row>
+    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -6148,10 +6363,11 @@
       <c r="AI31" s="5"/>
       <c r="AJ31" s="5"/>
       <c r="AK31" s="5"/>
-    </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL31" s="5"/>
+    </row>
+    <row r="32" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -6189,10 +6405,11 @@
       <c r="AI32" s="5"/>
       <c r="AJ32" s="5"/>
       <c r="AK32" s="5"/>
-    </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL32" s="5"/>
+    </row>
+    <row r="33" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -6230,10 +6447,11 @@
       <c r="AI33" s="5"/>
       <c r="AJ33" s="5"/>
       <c r="AK33" s="5"/>
-    </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL33" s="5"/>
+    </row>
+    <row r="34" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -6271,10 +6489,11 @@
       <c r="AI34" s="5"/>
       <c r="AJ34" s="5"/>
       <c r="AK34" s="5"/>
-    </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL34" s="5"/>
+    </row>
+    <row r="35" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -6312,10 +6531,11 @@
       <c r="AI35" s="5"/>
       <c r="AJ35" s="5"/>
       <c r="AK35" s="5"/>
-    </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL35" s="5"/>
+    </row>
+    <row r="36" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -6353,10 +6573,11 @@
       <c r="AI36" s="5"/>
       <c r="AJ36" s="5"/>
       <c r="AK36" s="5"/>
-    </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL36" s="5"/>
+    </row>
+    <row r="37" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -6394,71 +6615,73 @@
       <c r="AI37" s="5"/>
       <c r="AJ37" s="5"/>
       <c r="AK37" s="5"/>
-    </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
-      <c r="O38" s="6"/>
-      <c r="P38" s="6"/>
-      <c r="Q38" s="6"/>
-      <c r="R38" s="6"/>
-      <c r="S38" s="6"/>
-      <c r="T38" s="6"/>
-      <c r="U38" s="6"/>
-      <c r="V38" s="6"/>
-      <c r="W38" s="6"/>
-      <c r="X38" s="6"/>
-      <c r="Y38" s="6"/>
-      <c r="Z38" s="6"/>
-      <c r="AA38" s="6"/>
-      <c r="AB38" s="6"/>
-      <c r="AC38" s="6"/>
-      <c r="AD38" s="6"/>
-      <c r="AE38" s="6"/>
-      <c r="AF38" s="6"/>
-      <c r="AG38" s="6"/>
-      <c r="AH38" s="6"/>
-      <c r="AI38" s="6"/>
-      <c r="AJ38" s="6"/>
-      <c r="AK38" s="6"/>
-    </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL37" s="5"/>
+    </row>
+    <row r="38" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="5"/>
+      <c r="X38" s="5"/>
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="5"/>
+      <c r="AA38" s="5"/>
+      <c r="AB38" s="5"/>
+      <c r="AC38" s="5"/>
+      <c r="AD38" s="5"/>
+      <c r="AE38" s="5"/>
+      <c r="AF38" s="5"/>
+      <c r="AG38" s="5"/>
+      <c r="AH38" s="5"/>
+      <c r="AI38" s="5"/>
+      <c r="AJ38" s="5"/>
+      <c r="AK38" s="5"/>
+      <c r="AL38" s="5"/>
+    </row>
+    <row r="39" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
-      <c r="E39" s="7"/>
+      <c r="E39" s="6"/>
       <c r="F39" s="6"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
       <c r="O39" s="6"/>
-      <c r="P39" s="7"/>
-      <c r="Q39" s="7"/>
-      <c r="R39" s="7"/>
-      <c r="S39" s="7"/>
-      <c r="T39" s="7"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="6"/>
+      <c r="T39" s="6"/>
       <c r="U39" s="6"/>
       <c r="V39" s="6"/>
       <c r="W39" s="6"/>
@@ -6468,18 +6691,19 @@
       <c r="AA39" s="6"/>
       <c r="AB39" s="6"/>
       <c r="AC39" s="6"/>
-      <c r="AD39" s="7"/>
+      <c r="AD39" s="6"/>
       <c r="AE39" s="6"/>
-      <c r="AF39" s="7"/>
-      <c r="AG39" s="7"/>
+      <c r="AF39" s="6"/>
+      <c r="AG39" s="6"/>
       <c r="AH39" s="6"/>
       <c r="AI39" s="6"/>
-      <c r="AJ39" s="7"/>
-      <c r="AK39" s="7"/>
-    </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AJ39" s="6"/>
+      <c r="AK39" s="6"/>
+      <c r="AL39" s="6"/>
+    </row>
+    <row r="40" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -6494,13 +6718,13 @@
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="6"/>
       <c r="Q40" s="7"/>
       <c r="R40" s="7"/>
       <c r="S40" s="7"/>
       <c r="T40" s="7"/>
-      <c r="U40" s="6"/>
+      <c r="U40" s="7"/>
       <c r="V40" s="6"/>
       <c r="W40" s="6"/>
       <c r="X40" s="6"/>
@@ -6509,59 +6733,61 @@
       <c r="AA40" s="6"/>
       <c r="AB40" s="6"/>
       <c r="AC40" s="6"/>
-      <c r="AD40" s="7"/>
-      <c r="AE40" s="6"/>
-      <c r="AF40" s="7"/>
+      <c r="AD40" s="6"/>
+      <c r="AE40" s="7"/>
+      <c r="AF40" s="6"/>
       <c r="AG40" s="7"/>
-      <c r="AH40" s="6"/>
+      <c r="AH40" s="7"/>
       <c r="AI40" s="6"/>
-      <c r="AJ40" s="7"/>
+      <c r="AJ40" s="6"/>
       <c r="AK40" s="7"/>
-    </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL40" s="7"/>
+    </row>
+    <row r="41" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="5"/>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="5"/>
-      <c r="R41" s="5"/>
-      <c r="S41" s="5"/>
-      <c r="T41" s="5"/>
-      <c r="U41" s="5"/>
-      <c r="V41" s="5"/>
-      <c r="W41" s="5"/>
-      <c r="X41" s="5"/>
-      <c r="Y41" s="5"/>
-      <c r="Z41" s="5"/>
-      <c r="AA41" s="5"/>
-      <c r="AB41" s="5"/>
-      <c r="AC41" s="5"/>
-      <c r="AD41" s="5"/>
-      <c r="AE41" s="5"/>
-      <c r="AF41" s="5"/>
-      <c r="AG41" s="5"/>
-      <c r="AH41" s="5"/>
-      <c r="AI41" s="5"/>
-      <c r="AJ41" s="5"/>
-      <c r="AK41" s="5"/>
-    </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7"/>
+      <c r="S41" s="7"/>
+      <c r="T41" s="7"/>
+      <c r="U41" s="7"/>
+      <c r="V41" s="6"/>
+      <c r="W41" s="6"/>
+      <c r="X41" s="6"/>
+      <c r="Y41" s="6"/>
+      <c r="Z41" s="6"/>
+      <c r="AA41" s="6"/>
+      <c r="AB41" s="6"/>
+      <c r="AC41" s="6"/>
+      <c r="AD41" s="6"/>
+      <c r="AE41" s="7"/>
+      <c r="AF41" s="6"/>
+      <c r="AG41" s="7"/>
+      <c r="AH41" s="7"/>
+      <c r="AI41" s="6"/>
+      <c r="AJ41" s="6"/>
+      <c r="AK41" s="7"/>
+      <c r="AL41" s="7"/>
+    </row>
+    <row r="42" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -6599,88 +6825,133 @@
       <c r="AI42" s="5"/>
       <c r="AJ42" s="5"/>
       <c r="AK42" s="5"/>
-    </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL42" s="5"/>
+    </row>
+    <row r="43" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4"/>
-      <c r="O43" s="4"/>
-      <c r="P43" s="4"/>
-      <c r="Q43" s="4"/>
-      <c r="R43" s="4"/>
-      <c r="S43" s="4"/>
-      <c r="T43" s="4"/>
-      <c r="U43" s="4"/>
-      <c r="V43" s="4"/>
-      <c r="W43" s="4"/>
-      <c r="X43" s="4"/>
-      <c r="Y43" s="4"/>
-      <c r="Z43" s="4"/>
-      <c r="AA43" s="4"/>
-      <c r="AB43" s="4"/>
-      <c r="AC43" s="4"/>
-      <c r="AD43" s="4"/>
-      <c r="AE43" s="4"/>
-      <c r="AF43" s="4"/>
-      <c r="AG43" s="4"/>
-      <c r="AH43" s="4"/>
-      <c r="AI43" s="4"/>
-      <c r="AJ43" s="4"/>
-      <c r="AK43" s="4"/>
-    </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="5"/>
+      <c r="S43" s="5"/>
+      <c r="T43" s="5"/>
+      <c r="U43" s="5"/>
+      <c r="V43" s="5"/>
+      <c r="W43" s="5"/>
+      <c r="X43" s="5"/>
+      <c r="Y43" s="5"/>
+      <c r="Z43" s="5"/>
+      <c r="AA43" s="5"/>
+      <c r="AB43" s="5"/>
+      <c r="AC43" s="5"/>
+      <c r="AD43" s="5"/>
+      <c r="AE43" s="5"/>
+      <c r="AF43" s="5"/>
+      <c r="AG43" s="5"/>
+      <c r="AH43" s="5"/>
+      <c r="AI43" s="5"/>
+      <c r="AJ43" s="5"/>
+      <c r="AK43" s="5"/>
+      <c r="AL43" s="5"/>
+    </row>
+    <row r="44" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
-      <c r="R44" s="2"/>
-      <c r="S44" s="2"/>
-      <c r="T44" s="2"/>
-      <c r="U44" s="2"/>
-      <c r="V44" s="2"/>
-      <c r="W44" s="2"/>
-      <c r="X44" s="2"/>
-      <c r="Y44" s="2"/>
-      <c r="Z44" s="2"/>
-      <c r="AA44" s="2"/>
-      <c r="AB44" s="2"/>
-      <c r="AC44" s="2"/>
-      <c r="AD44" s="2"/>
-      <c r="AE44" s="2"/>
-      <c r="AF44" s="2"/>
-      <c r="AG44" s="2"/>
-      <c r="AH44" s="2"/>
-      <c r="AI44" s="2"/>
-      <c r="AJ44" s="2"/>
-      <c r="AK44" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="4"/>
+      <c r="U44" s="4"/>
+      <c r="V44" s="4"/>
+      <c r="W44" s="4"/>
+      <c r="X44" s="4"/>
+      <c r="Y44" s="4"/>
+      <c r="Z44" s="4"/>
+      <c r="AA44" s="4"/>
+      <c r="AB44" s="4"/>
+      <c r="AC44" s="4"/>
+      <c r="AD44" s="4"/>
+      <c r="AE44" s="4"/>
+      <c r="AF44" s="4"/>
+      <c r="AG44" s="4"/>
+      <c r="AH44" s="4"/>
+      <c r="AI44" s="4"/>
+      <c r="AJ44" s="4"/>
+      <c r="AK44" s="4"/>
+      <c r="AL44" s="4"/>
+    </row>
+    <row r="45" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="2"/>
+      <c r="U45" s="2"/>
+      <c r="V45" s="2"/>
+      <c r="W45" s="2"/>
+      <c r="X45" s="2"/>
+      <c r="Y45" s="2"/>
+      <c r="Z45" s="2"/>
+      <c r="AA45" s="2"/>
+      <c r="AB45" s="2"/>
+      <c r="AC45" s="2"/>
+      <c r="AD45" s="2"/>
+      <c r="AE45" s="2"/>
+      <c r="AF45" s="2"/>
+      <c r="AG45" s="2"/>
+      <c r="AH45" s="2"/>
+      <c r="AI45" s="2"/>
+      <c r="AJ45" s="2"/>
+      <c r="AK45" s="2"/>
+      <c r="AL45" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6689,10 +6960,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK44"/>
+  <dimension ref="A1:AL45"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AL44"/>
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:BL46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6710,30 +6981,31 @@
     <col min="12" max="12" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.77734375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="3.88671875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="3.77734375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3.77734375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="3.77734375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="8.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6845,10 +7117,13 @@
       <c r="AK1" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -6886,10 +7161,11 @@
       <c r="AI2" s="5"/>
       <c r="AJ2" s="5"/>
       <c r="AK2" s="5"/>
-    </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL2" s="5"/>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -6927,10 +7203,11 @@
       <c r="AI3" s="5"/>
       <c r="AJ3" s="5"/>
       <c r="AK3" s="5"/>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL3" s="5"/>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -6968,10 +7245,11 @@
       <c r="AI4" s="5"/>
       <c r="AJ4" s="5"/>
       <c r="AK4" s="5"/>
-    </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL4" s="5"/>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -7009,10 +7287,11 @@
       <c r="AI5" s="5"/>
       <c r="AJ5" s="5"/>
       <c r="AK5" s="5"/>
-    </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL5" s="5"/>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -7050,10 +7329,11 @@
       <c r="AI6" s="5"/>
       <c r="AJ6" s="5"/>
       <c r="AK6" s="5"/>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL6" s="5"/>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -7091,10 +7371,11 @@
       <c r="AI7" s="5"/>
       <c r="AJ7" s="5"/>
       <c r="AK7" s="5"/>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL7" s="5"/>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -7132,10 +7413,11 @@
       <c r="AI8" s="5"/>
       <c r="AJ8" s="5"/>
       <c r="AK8" s="5"/>
-    </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL8" s="5"/>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -7173,10 +7455,11 @@
       <c r="AI9" s="5"/>
       <c r="AJ9" s="5"/>
       <c r="AK9" s="5"/>
-    </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL9" s="5"/>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -7214,10 +7497,11 @@
       <c r="AI10" s="5"/>
       <c r="AJ10" s="5"/>
       <c r="AK10" s="5"/>
-    </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL10" s="5"/>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -7255,10 +7539,11 @@
       <c r="AI11" s="5"/>
       <c r="AJ11" s="5"/>
       <c r="AK11" s="5"/>
-    </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL11" s="5"/>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -7296,10 +7581,11 @@
       <c r="AI12" s="5"/>
       <c r="AJ12" s="5"/>
       <c r="AK12" s="5"/>
-    </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL12" s="5"/>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -7337,10 +7623,11 @@
       <c r="AI13" s="5"/>
       <c r="AJ13" s="5"/>
       <c r="AK13" s="5"/>
-    </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL13" s="5"/>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -7378,10 +7665,11 @@
       <c r="AI14" s="5"/>
       <c r="AJ14" s="5"/>
       <c r="AK14" s="5"/>
-    </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL14" s="5"/>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -7419,10 +7707,11 @@
       <c r="AI15" s="5"/>
       <c r="AJ15" s="5"/>
       <c r="AK15" s="5"/>
-    </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL15" s="5"/>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -7460,10 +7749,11 @@
       <c r="AI16" s="5"/>
       <c r="AJ16" s="5"/>
       <c r="AK16" s="5"/>
-    </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL16" s="5"/>
+    </row>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -7501,10 +7791,11 @@
       <c r="AI17" s="5"/>
       <c r="AJ17" s="5"/>
       <c r="AK17" s="5"/>
-    </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL17" s="5"/>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -7542,10 +7833,11 @@
       <c r="AI18" s="5"/>
       <c r="AJ18" s="5"/>
       <c r="AK18" s="5"/>
-    </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL18" s="5"/>
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -7583,10 +7875,11 @@
       <c r="AI19" s="5"/>
       <c r="AJ19" s="5"/>
       <c r="AK19" s="5"/>
-    </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL19" s="5"/>
+    </row>
+    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -7624,10 +7917,11 @@
       <c r="AI20" s="5"/>
       <c r="AJ20" s="5"/>
       <c r="AK20" s="5"/>
-    </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL20" s="5"/>
+    </row>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -7665,10 +7959,11 @@
       <c r="AI21" s="5"/>
       <c r="AJ21" s="5"/>
       <c r="AK21" s="5"/>
-    </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL21" s="5"/>
+    </row>
+    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -7706,10 +8001,11 @@
       <c r="AI22" s="5"/>
       <c r="AJ22" s="5"/>
       <c r="AK22" s="5"/>
-    </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL22" s="5"/>
+    </row>
+    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -7747,10 +8043,11 @@
       <c r="AI23" s="5"/>
       <c r="AJ23" s="5"/>
       <c r="AK23" s="5"/>
-    </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL23" s="5"/>
+    </row>
+    <row r="24" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -7788,10 +8085,11 @@
       <c r="AI24" s="5"/>
       <c r="AJ24" s="5"/>
       <c r="AK24" s="5"/>
-    </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL24" s="5"/>
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -7829,10 +8127,11 @@
       <c r="AI25" s="5"/>
       <c r="AJ25" s="5"/>
       <c r="AK25" s="5"/>
-    </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL25" s="5"/>
+    </row>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -7870,10 +8169,11 @@
       <c r="AI26" s="5"/>
       <c r="AJ26" s="5"/>
       <c r="AK26" s="5"/>
-    </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL26" s="5"/>
+    </row>
+    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -7911,10 +8211,11 @@
       <c r="AI27" s="5"/>
       <c r="AJ27" s="5"/>
       <c r="AK27" s="5"/>
-    </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL27" s="5"/>
+    </row>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -7952,10 +8253,11 @@
       <c r="AI28" s="5"/>
       <c r="AJ28" s="5"/>
       <c r="AK28" s="5"/>
-    </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL28" s="5"/>
+    </row>
+    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -7993,10 +8295,11 @@
       <c r="AI29" s="5"/>
       <c r="AJ29" s="5"/>
       <c r="AK29" s="5"/>
-    </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL29" s="5"/>
+    </row>
+    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -8034,10 +8337,11 @@
       <c r="AI30" s="5"/>
       <c r="AJ30" s="5"/>
       <c r="AK30" s="5"/>
-    </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL30" s="5"/>
+    </row>
+    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -8075,10 +8379,11 @@
       <c r="AI31" s="5"/>
       <c r="AJ31" s="5"/>
       <c r="AK31" s="5"/>
-    </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL31" s="5"/>
+    </row>
+    <row r="32" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -8116,10 +8421,11 @@
       <c r="AI32" s="5"/>
       <c r="AJ32" s="5"/>
       <c r="AK32" s="5"/>
-    </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL32" s="5"/>
+    </row>
+    <row r="33" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -8157,10 +8463,11 @@
       <c r="AI33" s="5"/>
       <c r="AJ33" s="5"/>
       <c r="AK33" s="5"/>
-    </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL33" s="5"/>
+    </row>
+    <row r="34" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -8198,10 +8505,11 @@
       <c r="AI34" s="5"/>
       <c r="AJ34" s="5"/>
       <c r="AK34" s="5"/>
-    </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL34" s="5"/>
+    </row>
+    <row r="35" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -8239,10 +8547,11 @@
       <c r="AI35" s="5"/>
       <c r="AJ35" s="5"/>
       <c r="AK35" s="5"/>
-    </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL35" s="5"/>
+    </row>
+    <row r="36" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -8280,10 +8589,11 @@
       <c r="AI36" s="5"/>
       <c r="AJ36" s="5"/>
       <c r="AK36" s="5"/>
-    </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL36" s="5"/>
+    </row>
+    <row r="37" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -8321,71 +8631,73 @@
       <c r="AI37" s="5"/>
       <c r="AJ37" s="5"/>
       <c r="AK37" s="5"/>
-    </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
-      <c r="O38" s="6"/>
-      <c r="P38" s="6"/>
-      <c r="Q38" s="6"/>
-      <c r="R38" s="6"/>
-      <c r="S38" s="6"/>
-      <c r="T38" s="6"/>
-      <c r="U38" s="6"/>
-      <c r="V38" s="6"/>
-      <c r="W38" s="6"/>
-      <c r="X38" s="6"/>
-      <c r="Y38" s="6"/>
-      <c r="Z38" s="6"/>
-      <c r="AA38" s="6"/>
-      <c r="AB38" s="6"/>
-      <c r="AC38" s="6"/>
-      <c r="AD38" s="6"/>
-      <c r="AE38" s="6"/>
-      <c r="AF38" s="6"/>
-      <c r="AG38" s="6"/>
-      <c r="AH38" s="6"/>
-      <c r="AI38" s="6"/>
-      <c r="AJ38" s="6"/>
-      <c r="AK38" s="6"/>
-    </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL37" s="5"/>
+    </row>
+    <row r="38" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="5"/>
+      <c r="X38" s="5"/>
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="5"/>
+      <c r="AA38" s="5"/>
+      <c r="AB38" s="5"/>
+      <c r="AC38" s="5"/>
+      <c r="AD38" s="5"/>
+      <c r="AE38" s="5"/>
+      <c r="AF38" s="5"/>
+      <c r="AG38" s="5"/>
+      <c r="AH38" s="5"/>
+      <c r="AI38" s="5"/>
+      <c r="AJ38" s="5"/>
+      <c r="AK38" s="5"/>
+      <c r="AL38" s="5"/>
+    </row>
+    <row r="39" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
-      <c r="E39" s="7"/>
+      <c r="E39" s="6"/>
       <c r="F39" s="6"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
       <c r="O39" s="6"/>
-      <c r="P39" s="7"/>
-      <c r="Q39" s="7"/>
-      <c r="R39" s="7"/>
-      <c r="S39" s="7"/>
-      <c r="T39" s="7"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="6"/>
+      <c r="T39" s="6"/>
       <c r="U39" s="6"/>
       <c r="V39" s="6"/>
       <c r="W39" s="6"/>
@@ -8395,18 +8707,19 @@
       <c r="AA39" s="6"/>
       <c r="AB39" s="6"/>
       <c r="AC39" s="6"/>
-      <c r="AD39" s="7"/>
+      <c r="AD39" s="6"/>
       <c r="AE39" s="6"/>
-      <c r="AF39" s="7"/>
-      <c r="AG39" s="7"/>
+      <c r="AF39" s="6"/>
+      <c r="AG39" s="6"/>
       <c r="AH39" s="6"/>
       <c r="AI39" s="6"/>
-      <c r="AJ39" s="7"/>
-      <c r="AK39" s="7"/>
-    </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AJ39" s="6"/>
+      <c r="AK39" s="6"/>
+      <c r="AL39" s="6"/>
+    </row>
+    <row r="40" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -8421,13 +8734,13 @@
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="6"/>
       <c r="Q40" s="7"/>
       <c r="R40" s="7"/>
       <c r="S40" s="7"/>
       <c r="T40" s="7"/>
-      <c r="U40" s="6"/>
+      <c r="U40" s="7"/>
       <c r="V40" s="6"/>
       <c r="W40" s="6"/>
       <c r="X40" s="6"/>
@@ -8436,59 +8749,61 @@
       <c r="AA40" s="6"/>
       <c r="AB40" s="6"/>
       <c r="AC40" s="6"/>
-      <c r="AD40" s="7"/>
-      <c r="AE40" s="6"/>
-      <c r="AF40" s="7"/>
+      <c r="AD40" s="6"/>
+      <c r="AE40" s="7"/>
+      <c r="AF40" s="6"/>
       <c r="AG40" s="7"/>
-      <c r="AH40" s="6"/>
+      <c r="AH40" s="7"/>
       <c r="AI40" s="6"/>
-      <c r="AJ40" s="7"/>
+      <c r="AJ40" s="6"/>
       <c r="AK40" s="7"/>
-    </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL40" s="7"/>
+    </row>
+    <row r="41" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="5"/>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="5"/>
-      <c r="R41" s="5"/>
-      <c r="S41" s="5"/>
-      <c r="T41" s="5"/>
-      <c r="U41" s="5"/>
-      <c r="V41" s="5"/>
-      <c r="W41" s="5"/>
-      <c r="X41" s="5"/>
-      <c r="Y41" s="5"/>
-      <c r="Z41" s="5"/>
-      <c r="AA41" s="5"/>
-      <c r="AB41" s="5"/>
-      <c r="AC41" s="5"/>
-      <c r="AD41" s="5"/>
-      <c r="AE41" s="5"/>
-      <c r="AF41" s="5"/>
-      <c r="AG41" s="5"/>
-      <c r="AH41" s="5"/>
-      <c r="AI41" s="5"/>
-      <c r="AJ41" s="5"/>
-      <c r="AK41" s="5"/>
-    </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7"/>
+      <c r="S41" s="7"/>
+      <c r="T41" s="7"/>
+      <c r="U41" s="7"/>
+      <c r="V41" s="6"/>
+      <c r="W41" s="6"/>
+      <c r="X41" s="6"/>
+      <c r="Y41" s="6"/>
+      <c r="Z41" s="6"/>
+      <c r="AA41" s="6"/>
+      <c r="AB41" s="6"/>
+      <c r="AC41" s="6"/>
+      <c r="AD41" s="6"/>
+      <c r="AE41" s="7"/>
+      <c r="AF41" s="6"/>
+      <c r="AG41" s="7"/>
+      <c r="AH41" s="7"/>
+      <c r="AI41" s="6"/>
+      <c r="AJ41" s="6"/>
+      <c r="AK41" s="7"/>
+      <c r="AL41" s="7"/>
+    </row>
+    <row r="42" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -8526,88 +8841,133 @@
       <c r="AI42" s="5"/>
       <c r="AJ42" s="5"/>
       <c r="AK42" s="5"/>
-    </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL42" s="5"/>
+    </row>
+    <row r="43" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4"/>
-      <c r="O43" s="4"/>
-      <c r="P43" s="4"/>
-      <c r="Q43" s="4"/>
-      <c r="R43" s="4"/>
-      <c r="S43" s="4"/>
-      <c r="T43" s="4"/>
-      <c r="U43" s="4"/>
-      <c r="V43" s="4"/>
-      <c r="W43" s="4"/>
-      <c r="X43" s="4"/>
-      <c r="Y43" s="4"/>
-      <c r="Z43" s="4"/>
-      <c r="AA43" s="4"/>
-      <c r="AB43" s="4"/>
-      <c r="AC43" s="4"/>
-      <c r="AD43" s="4"/>
-      <c r="AE43" s="4"/>
-      <c r="AF43" s="4"/>
-      <c r="AG43" s="4"/>
-      <c r="AH43" s="4"/>
-      <c r="AI43" s="4"/>
-      <c r="AJ43" s="4"/>
-      <c r="AK43" s="4"/>
-    </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="5"/>
+      <c r="S43" s="5"/>
+      <c r="T43" s="5"/>
+      <c r="U43" s="5"/>
+      <c r="V43" s="5"/>
+      <c r="W43" s="5"/>
+      <c r="X43" s="5"/>
+      <c r="Y43" s="5"/>
+      <c r="Z43" s="5"/>
+      <c r="AA43" s="5"/>
+      <c r="AB43" s="5"/>
+      <c r="AC43" s="5"/>
+      <c r="AD43" s="5"/>
+      <c r="AE43" s="5"/>
+      <c r="AF43" s="5"/>
+      <c r="AG43" s="5"/>
+      <c r="AH43" s="5"/>
+      <c r="AI43" s="5"/>
+      <c r="AJ43" s="5"/>
+      <c r="AK43" s="5"/>
+      <c r="AL43" s="5"/>
+    </row>
+    <row r="44" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
-      <c r="R44" s="2"/>
-      <c r="S44" s="2"/>
-      <c r="T44" s="2"/>
-      <c r="U44" s="2"/>
-      <c r="V44" s="2"/>
-      <c r="W44" s="2"/>
-      <c r="X44" s="2"/>
-      <c r="Y44" s="2"/>
-      <c r="Z44" s="2"/>
-      <c r="AA44" s="2"/>
-      <c r="AB44" s="2"/>
-      <c r="AC44" s="2"/>
-      <c r="AD44" s="2"/>
-      <c r="AE44" s="2"/>
-      <c r="AF44" s="2"/>
-      <c r="AG44" s="2"/>
-      <c r="AH44" s="2"/>
-      <c r="AI44" s="2"/>
-      <c r="AJ44" s="2"/>
-      <c r="AK44" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="4"/>
+      <c r="U44" s="4"/>
+      <c r="V44" s="4"/>
+      <c r="W44" s="4"/>
+      <c r="X44" s="4"/>
+      <c r="Y44" s="4"/>
+      <c r="Z44" s="4"/>
+      <c r="AA44" s="4"/>
+      <c r="AB44" s="4"/>
+      <c r="AC44" s="4"/>
+      <c r="AD44" s="4"/>
+      <c r="AE44" s="4"/>
+      <c r="AF44" s="4"/>
+      <c r="AG44" s="4"/>
+      <c r="AH44" s="4"/>
+      <c r="AI44" s="4"/>
+      <c r="AJ44" s="4"/>
+      <c r="AK44" s="4"/>
+      <c r="AL44" s="4"/>
+    </row>
+    <row r="45" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="2"/>
+      <c r="U45" s="2"/>
+      <c r="V45" s="2"/>
+      <c r="W45" s="2"/>
+      <c r="X45" s="2"/>
+      <c r="Y45" s="2"/>
+      <c r="Z45" s="2"/>
+      <c r="AA45" s="2"/>
+      <c r="AB45" s="2"/>
+      <c r="AC45" s="2"/>
+      <c r="AD45" s="2"/>
+      <c r="AE45" s="2"/>
+      <c r="AF45" s="2"/>
+      <c r="AG45" s="2"/>
+      <c r="AH45" s="2"/>
+      <c r="AI45" s="2"/>
+      <c r="AJ45" s="2"/>
+      <c r="AK45" s="2"/>
+      <c r="AL45" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8616,10 +8976,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK44"/>
+  <dimension ref="A1:AL45"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AN44"/>
+      <selection activeCell="B2" sqref="B2:BD45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8637,30 +8997,31 @@
     <col min="12" max="12" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.77734375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="3.88671875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="3.77734375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3.77734375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="3.77734375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="8.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8772,10 +9133,13 @@
       <c r="AK1" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -8813,10 +9177,11 @@
       <c r="AI2" s="5"/>
       <c r="AJ2" s="5"/>
       <c r="AK2" s="5"/>
-    </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL2" s="5"/>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -8854,10 +9219,11 @@
       <c r="AI3" s="5"/>
       <c r="AJ3" s="5"/>
       <c r="AK3" s="5"/>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL3" s="5"/>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -8895,10 +9261,11 @@
       <c r="AI4" s="5"/>
       <c r="AJ4" s="5"/>
       <c r="AK4" s="5"/>
-    </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL4" s="5"/>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -8936,10 +9303,11 @@
       <c r="AI5" s="5"/>
       <c r="AJ5" s="5"/>
       <c r="AK5" s="5"/>
-    </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL5" s="5"/>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -8977,10 +9345,11 @@
       <c r="AI6" s="5"/>
       <c r="AJ6" s="5"/>
       <c r="AK6" s="5"/>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL6" s="5"/>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -9018,10 +9387,11 @@
       <c r="AI7" s="5"/>
       <c r="AJ7" s="5"/>
       <c r="AK7" s="5"/>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL7" s="5"/>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -9059,10 +9429,11 @@
       <c r="AI8" s="5"/>
       <c r="AJ8" s="5"/>
       <c r="AK8" s="5"/>
-    </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL8" s="5"/>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -9100,10 +9471,11 @@
       <c r="AI9" s="5"/>
       <c r="AJ9" s="5"/>
       <c r="AK9" s="5"/>
-    </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL9" s="5"/>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -9141,10 +9513,11 @@
       <c r="AI10" s="5"/>
       <c r="AJ10" s="5"/>
       <c r="AK10" s="5"/>
-    </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL10" s="5"/>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -9182,10 +9555,11 @@
       <c r="AI11" s="5"/>
       <c r="AJ11" s="5"/>
       <c r="AK11" s="5"/>
-    </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL11" s="5"/>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -9223,10 +9597,11 @@
       <c r="AI12" s="5"/>
       <c r="AJ12" s="5"/>
       <c r="AK12" s="5"/>
-    </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL12" s="5"/>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -9264,10 +9639,11 @@
       <c r="AI13" s="5"/>
       <c r="AJ13" s="5"/>
       <c r="AK13" s="5"/>
-    </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL13" s="5"/>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -9305,10 +9681,11 @@
       <c r="AI14" s="5"/>
       <c r="AJ14" s="5"/>
       <c r="AK14" s="5"/>
-    </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL14" s="5"/>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -9346,10 +9723,11 @@
       <c r="AI15" s="5"/>
       <c r="AJ15" s="5"/>
       <c r="AK15" s="5"/>
-    </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL15" s="5"/>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -9387,10 +9765,11 @@
       <c r="AI16" s="5"/>
       <c r="AJ16" s="5"/>
       <c r="AK16" s="5"/>
-    </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL16" s="5"/>
+    </row>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -9428,10 +9807,11 @@
       <c r="AI17" s="5"/>
       <c r="AJ17" s="5"/>
       <c r="AK17" s="5"/>
-    </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL17" s="5"/>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -9469,10 +9849,11 @@
       <c r="AI18" s="5"/>
       <c r="AJ18" s="5"/>
       <c r="AK18" s="5"/>
-    </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL18" s="5"/>
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -9510,10 +9891,11 @@
       <c r="AI19" s="5"/>
       <c r="AJ19" s="5"/>
       <c r="AK19" s="5"/>
-    </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL19" s="5"/>
+    </row>
+    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -9551,10 +9933,11 @@
       <c r="AI20" s="5"/>
       <c r="AJ20" s="5"/>
       <c r="AK20" s="5"/>
-    </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL20" s="5"/>
+    </row>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -9592,10 +9975,11 @@
       <c r="AI21" s="5"/>
       <c r="AJ21" s="5"/>
       <c r="AK21" s="5"/>
-    </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL21" s="5"/>
+    </row>
+    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -9633,10 +10017,11 @@
       <c r="AI22" s="5"/>
       <c r="AJ22" s="5"/>
       <c r="AK22" s="5"/>
-    </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL22" s="5"/>
+    </row>
+    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -9674,10 +10059,11 @@
       <c r="AI23" s="5"/>
       <c r="AJ23" s="5"/>
       <c r="AK23" s="5"/>
-    </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL23" s="5"/>
+    </row>
+    <row r="24" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -9715,10 +10101,11 @@
       <c r="AI24" s="5"/>
       <c r="AJ24" s="5"/>
       <c r="AK24" s="5"/>
-    </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL24" s="5"/>
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -9756,10 +10143,11 @@
       <c r="AI25" s="5"/>
       <c r="AJ25" s="5"/>
       <c r="AK25" s="5"/>
-    </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL25" s="5"/>
+    </row>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -9797,10 +10185,11 @@
       <c r="AI26" s="5"/>
       <c r="AJ26" s="5"/>
       <c r="AK26" s="5"/>
-    </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL26" s="5"/>
+    </row>
+    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -9838,10 +10227,11 @@
       <c r="AI27" s="5"/>
       <c r="AJ27" s="5"/>
       <c r="AK27" s="5"/>
-    </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL27" s="5"/>
+    </row>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -9879,10 +10269,11 @@
       <c r="AI28" s="5"/>
       <c r="AJ28" s="5"/>
       <c r="AK28" s="5"/>
-    </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL28" s="5"/>
+    </row>
+    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -9920,10 +10311,11 @@
       <c r="AI29" s="5"/>
       <c r="AJ29" s="5"/>
       <c r="AK29" s="5"/>
-    </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL29" s="5"/>
+    </row>
+    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -9961,10 +10353,11 @@
       <c r="AI30" s="5"/>
       <c r="AJ30" s="5"/>
       <c r="AK30" s="5"/>
-    </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL30" s="5"/>
+    </row>
+    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -10002,10 +10395,11 @@
       <c r="AI31" s="5"/>
       <c r="AJ31" s="5"/>
       <c r="AK31" s="5"/>
-    </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL31" s="5"/>
+    </row>
+    <row r="32" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -10043,10 +10437,11 @@
       <c r="AI32" s="5"/>
       <c r="AJ32" s="5"/>
       <c r="AK32" s="5"/>
-    </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL32" s="5"/>
+    </row>
+    <row r="33" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -10084,10 +10479,11 @@
       <c r="AI33" s="5"/>
       <c r="AJ33" s="5"/>
       <c r="AK33" s="5"/>
-    </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL33" s="5"/>
+    </row>
+    <row r="34" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -10125,10 +10521,11 @@
       <c r="AI34" s="5"/>
       <c r="AJ34" s="5"/>
       <c r="AK34" s="5"/>
-    </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL34" s="5"/>
+    </row>
+    <row r="35" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -10166,10 +10563,11 @@
       <c r="AI35" s="5"/>
       <c r="AJ35" s="5"/>
       <c r="AK35" s="5"/>
-    </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL35" s="5"/>
+    </row>
+    <row r="36" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -10207,10 +10605,11 @@
       <c r="AI36" s="5"/>
       <c r="AJ36" s="5"/>
       <c r="AK36" s="5"/>
-    </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL36" s="5"/>
+    </row>
+    <row r="37" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -10248,71 +10647,73 @@
       <c r="AI37" s="5"/>
       <c r="AJ37" s="5"/>
       <c r="AK37" s="5"/>
-    </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
-      <c r="O38" s="6"/>
-      <c r="P38" s="6"/>
-      <c r="Q38" s="6"/>
-      <c r="R38" s="6"/>
-      <c r="S38" s="6"/>
-      <c r="T38" s="6"/>
-      <c r="U38" s="6"/>
-      <c r="V38" s="6"/>
-      <c r="W38" s="6"/>
-      <c r="X38" s="6"/>
-      <c r="Y38" s="6"/>
-      <c r="Z38" s="6"/>
-      <c r="AA38" s="6"/>
-      <c r="AB38" s="6"/>
-      <c r="AC38" s="6"/>
-      <c r="AD38" s="6"/>
-      <c r="AE38" s="6"/>
-      <c r="AF38" s="6"/>
-      <c r="AG38" s="6"/>
-      <c r="AH38" s="6"/>
-      <c r="AI38" s="6"/>
-      <c r="AJ38" s="6"/>
-      <c r="AK38" s="6"/>
-    </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL37" s="5"/>
+    </row>
+    <row r="38" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="5"/>
+      <c r="X38" s="5"/>
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="5"/>
+      <c r="AA38" s="5"/>
+      <c r="AB38" s="5"/>
+      <c r="AC38" s="5"/>
+      <c r="AD38" s="5"/>
+      <c r="AE38" s="5"/>
+      <c r="AF38" s="5"/>
+      <c r="AG38" s="5"/>
+      <c r="AH38" s="5"/>
+      <c r="AI38" s="5"/>
+      <c r="AJ38" s="5"/>
+      <c r="AK38" s="5"/>
+      <c r="AL38" s="5"/>
+    </row>
+    <row r="39" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
-      <c r="E39" s="7"/>
+      <c r="E39" s="6"/>
       <c r="F39" s="6"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
       <c r="O39" s="6"/>
-      <c r="P39" s="7"/>
-      <c r="Q39" s="7"/>
-      <c r="R39" s="7"/>
-      <c r="S39" s="7"/>
-      <c r="T39" s="7"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="6"/>
+      <c r="T39" s="6"/>
       <c r="U39" s="6"/>
       <c r="V39" s="6"/>
       <c r="W39" s="6"/>
@@ -10322,18 +10723,19 @@
       <c r="AA39" s="6"/>
       <c r="AB39" s="6"/>
       <c r="AC39" s="6"/>
-      <c r="AD39" s="7"/>
+      <c r="AD39" s="6"/>
       <c r="AE39" s="6"/>
-      <c r="AF39" s="7"/>
-      <c r="AG39" s="7"/>
+      <c r="AF39" s="6"/>
+      <c r="AG39" s="6"/>
       <c r="AH39" s="6"/>
       <c r="AI39" s="6"/>
-      <c r="AJ39" s="7"/>
-      <c r="AK39" s="7"/>
-    </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AJ39" s="6"/>
+      <c r="AK39" s="6"/>
+      <c r="AL39" s="6"/>
+    </row>
+    <row r="40" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -10348,13 +10750,13 @@
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="6"/>
       <c r="Q40" s="7"/>
       <c r="R40" s="7"/>
       <c r="S40" s="7"/>
       <c r="T40" s="7"/>
-      <c r="U40" s="6"/>
+      <c r="U40" s="7"/>
       <c r="V40" s="6"/>
       <c r="W40" s="6"/>
       <c r="X40" s="6"/>
@@ -10363,59 +10765,61 @@
       <c r="AA40" s="6"/>
       <c r="AB40" s="6"/>
       <c r="AC40" s="6"/>
-      <c r="AD40" s="7"/>
-      <c r="AE40" s="6"/>
-      <c r="AF40" s="7"/>
+      <c r="AD40" s="6"/>
+      <c r="AE40" s="7"/>
+      <c r="AF40" s="6"/>
       <c r="AG40" s="7"/>
-      <c r="AH40" s="6"/>
+      <c r="AH40" s="7"/>
       <c r="AI40" s="6"/>
-      <c r="AJ40" s="7"/>
+      <c r="AJ40" s="6"/>
       <c r="AK40" s="7"/>
-    </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL40" s="7"/>
+    </row>
+    <row r="41" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="5"/>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="5"/>
-      <c r="R41" s="5"/>
-      <c r="S41" s="5"/>
-      <c r="T41" s="5"/>
-      <c r="U41" s="5"/>
-      <c r="V41" s="5"/>
-      <c r="W41" s="5"/>
-      <c r="X41" s="5"/>
-      <c r="Y41" s="5"/>
-      <c r="Z41" s="5"/>
-      <c r="AA41" s="5"/>
-      <c r="AB41" s="5"/>
-      <c r="AC41" s="5"/>
-      <c r="AD41" s="5"/>
-      <c r="AE41" s="5"/>
-      <c r="AF41" s="5"/>
-      <c r="AG41" s="5"/>
-      <c r="AH41" s="5"/>
-      <c r="AI41" s="5"/>
-      <c r="AJ41" s="5"/>
-      <c r="AK41" s="5"/>
-    </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7"/>
+      <c r="S41" s="7"/>
+      <c r="T41" s="7"/>
+      <c r="U41" s="7"/>
+      <c r="V41" s="6"/>
+      <c r="W41" s="6"/>
+      <c r="X41" s="6"/>
+      <c r="Y41" s="6"/>
+      <c r="Z41" s="6"/>
+      <c r="AA41" s="6"/>
+      <c r="AB41" s="6"/>
+      <c r="AC41" s="6"/>
+      <c r="AD41" s="6"/>
+      <c r="AE41" s="7"/>
+      <c r="AF41" s="6"/>
+      <c r="AG41" s="7"/>
+      <c r="AH41" s="7"/>
+      <c r="AI41" s="6"/>
+      <c r="AJ41" s="6"/>
+      <c r="AK41" s="7"/>
+      <c r="AL41" s="7"/>
+    </row>
+    <row r="42" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -10453,88 +10857,133 @@
       <c r="AI42" s="5"/>
       <c r="AJ42" s="5"/>
       <c r="AK42" s="5"/>
-    </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL42" s="5"/>
+    </row>
+    <row r="43" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4"/>
-      <c r="O43" s="4"/>
-      <c r="P43" s="4"/>
-      <c r="Q43" s="4"/>
-      <c r="R43" s="4"/>
-      <c r="S43" s="4"/>
-      <c r="T43" s="4"/>
-      <c r="U43" s="4"/>
-      <c r="V43" s="4"/>
-      <c r="W43" s="4"/>
-      <c r="X43" s="4"/>
-      <c r="Y43" s="4"/>
-      <c r="Z43" s="4"/>
-      <c r="AA43" s="4"/>
-      <c r="AB43" s="4"/>
-      <c r="AC43" s="4"/>
-      <c r="AD43" s="4"/>
-      <c r="AE43" s="4"/>
-      <c r="AF43" s="4"/>
-      <c r="AG43" s="4"/>
-      <c r="AH43" s="4"/>
-      <c r="AI43" s="4"/>
-      <c r="AJ43" s="4"/>
-      <c r="AK43" s="4"/>
-    </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="5"/>
+      <c r="S43" s="5"/>
+      <c r="T43" s="5"/>
+      <c r="U43" s="5"/>
+      <c r="V43" s="5"/>
+      <c r="W43" s="5"/>
+      <c r="X43" s="5"/>
+      <c r="Y43" s="5"/>
+      <c r="Z43" s="5"/>
+      <c r="AA43" s="5"/>
+      <c r="AB43" s="5"/>
+      <c r="AC43" s="5"/>
+      <c r="AD43" s="5"/>
+      <c r="AE43" s="5"/>
+      <c r="AF43" s="5"/>
+      <c r="AG43" s="5"/>
+      <c r="AH43" s="5"/>
+      <c r="AI43" s="5"/>
+      <c r="AJ43" s="5"/>
+      <c r="AK43" s="5"/>
+      <c r="AL43" s="5"/>
+    </row>
+    <row r="44" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
-      <c r="R44" s="2"/>
-      <c r="S44" s="2"/>
-      <c r="T44" s="2"/>
-      <c r="U44" s="2"/>
-      <c r="V44" s="2"/>
-      <c r="W44" s="2"/>
-      <c r="X44" s="2"/>
-      <c r="Y44" s="2"/>
-      <c r="Z44" s="2"/>
-      <c r="AA44" s="2"/>
-      <c r="AB44" s="2"/>
-      <c r="AC44" s="2"/>
-      <c r="AD44" s="2"/>
-      <c r="AE44" s="2"/>
-      <c r="AF44" s="2"/>
-      <c r="AG44" s="2"/>
-      <c r="AH44" s="2"/>
-      <c r="AI44" s="2"/>
-      <c r="AJ44" s="2"/>
-      <c r="AK44" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="4"/>
+      <c r="U44" s="4"/>
+      <c r="V44" s="4"/>
+      <c r="W44" s="4"/>
+      <c r="X44" s="4"/>
+      <c r="Y44" s="4"/>
+      <c r="Z44" s="4"/>
+      <c r="AA44" s="4"/>
+      <c r="AB44" s="4"/>
+      <c r="AC44" s="4"/>
+      <c r="AD44" s="4"/>
+      <c r="AE44" s="4"/>
+      <c r="AF44" s="4"/>
+      <c r="AG44" s="4"/>
+      <c r="AH44" s="4"/>
+      <c r="AI44" s="4"/>
+      <c r="AJ44" s="4"/>
+      <c r="AK44" s="4"/>
+      <c r="AL44" s="4"/>
+    </row>
+    <row r="45" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="2"/>
+      <c r="U45" s="2"/>
+      <c r="V45" s="2"/>
+      <c r="W45" s="2"/>
+      <c r="X45" s="2"/>
+      <c r="Y45" s="2"/>
+      <c r="Z45" s="2"/>
+      <c r="AA45" s="2"/>
+      <c r="AB45" s="2"/>
+      <c r="AC45" s="2"/>
+      <c r="AD45" s="2"/>
+      <c r="AE45" s="2"/>
+      <c r="AF45" s="2"/>
+      <c r="AG45" s="2"/>
+      <c r="AH45" s="2"/>
+      <c r="AI45" s="2"/>
+      <c r="AJ45" s="2"/>
+      <c r="AK45" s="2"/>
+      <c r="AL45" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10543,10 +10992,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK8"/>
+  <dimension ref="A1:AL8"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AL14"/>
+      <selection activeCell="B2" sqref="B2:AR9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10564,30 +11013,31 @@
     <col min="12" max="12" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.77734375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="3.88671875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="3.77734375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3.77734375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="3.77734375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="8.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10699,10 +11149,13 @@
       <c r="AK1" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -10740,10 +11193,11 @@
       <c r="AI2" s="5"/>
       <c r="AJ2" s="5"/>
       <c r="AK2" s="5"/>
-    </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL2" s="5"/>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -10781,10 +11235,11 @@
       <c r="AI3" s="5"/>
       <c r="AJ3" s="5"/>
       <c r="AK3" s="5"/>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL3" s="5"/>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -10822,10 +11277,11 @@
       <c r="AI4" s="5"/>
       <c r="AJ4" s="5"/>
       <c r="AK4" s="5"/>
-    </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL4" s="5"/>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -10863,10 +11319,11 @@
       <c r="AI5" s="5"/>
       <c r="AJ5" s="5"/>
       <c r="AK5" s="5"/>
-    </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL5" s="5"/>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -10904,10 +11361,11 @@
       <c r="AI6" s="5"/>
       <c r="AJ6" s="5"/>
       <c r="AK6" s="5"/>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL6" s="5"/>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -10945,10 +11403,11 @@
       <c r="AI7" s="6"/>
       <c r="AJ7" s="6"/>
       <c r="AK7" s="6"/>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL7" s="6"/>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -10986,6 +11445,7 @@
       <c r="AI8" s="2"/>
       <c r="AJ8" s="2"/>
       <c r="AK8" s="2"/>
+      <c r="AL8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10994,10 +11454,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK41"/>
+  <dimension ref="A1:AL42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I7" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AM41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:AM42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11015,30 +11475,31 @@
     <col min="12" max="12" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.77734375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="3.88671875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="3.77734375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3.77734375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="3.77734375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="8.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11150,10 +11611,13 @@
       <c r="AK1" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -11191,10 +11655,11 @@
       <c r="AI2" s="5"/>
       <c r="AJ2" s="5"/>
       <c r="AK2" s="5"/>
-    </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL2" s="5"/>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -11232,10 +11697,11 @@
       <c r="AI3" s="5"/>
       <c r="AJ3" s="5"/>
       <c r="AK3" s="5"/>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL3" s="5"/>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -11273,10 +11739,11 @@
       <c r="AI4" s="5"/>
       <c r="AJ4" s="5"/>
       <c r="AK4" s="5"/>
-    </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL4" s="5"/>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -11314,10 +11781,11 @@
       <c r="AI5" s="5"/>
       <c r="AJ5" s="5"/>
       <c r="AK5" s="5"/>
-    </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL5" s="5"/>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -11355,10 +11823,11 @@
       <c r="AI6" s="5"/>
       <c r="AJ6" s="5"/>
       <c r="AK6" s="5"/>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL6" s="5"/>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -11396,10 +11865,11 @@
       <c r="AI7" s="5"/>
       <c r="AJ7" s="5"/>
       <c r="AK7" s="5"/>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL7" s="5"/>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -11437,10 +11907,11 @@
       <c r="AI8" s="5"/>
       <c r="AJ8" s="5"/>
       <c r="AK8" s="5"/>
-    </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL8" s="5"/>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -11478,10 +11949,11 @@
       <c r="AI9" s="5"/>
       <c r="AJ9" s="5"/>
       <c r="AK9" s="5"/>
-    </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL9" s="5"/>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -11519,10 +11991,11 @@
       <c r="AI10" s="5"/>
       <c r="AJ10" s="5"/>
       <c r="AK10" s="5"/>
-    </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL10" s="5"/>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -11560,10 +12033,11 @@
       <c r="AI11" s="5"/>
       <c r="AJ11" s="5"/>
       <c r="AK11" s="5"/>
-    </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL11" s="5"/>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -11601,10 +12075,11 @@
       <c r="AI12" s="5"/>
       <c r="AJ12" s="5"/>
       <c r="AK12" s="5"/>
-    </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL12" s="5"/>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -11642,10 +12117,11 @@
       <c r="AI13" s="5"/>
       <c r="AJ13" s="5"/>
       <c r="AK13" s="5"/>
-    </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL13" s="5"/>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -11683,10 +12159,11 @@
       <c r="AI14" s="5"/>
       <c r="AJ14" s="5"/>
       <c r="AK14" s="5"/>
-    </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL14" s="5"/>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -11724,10 +12201,11 @@
       <c r="AI15" s="5"/>
       <c r="AJ15" s="5"/>
       <c r="AK15" s="5"/>
-    </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL15" s="5"/>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -11765,10 +12243,11 @@
       <c r="AI16" s="5"/>
       <c r="AJ16" s="5"/>
       <c r="AK16" s="5"/>
-    </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL16" s="5"/>
+    </row>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -11806,10 +12285,11 @@
       <c r="AI17" s="5"/>
       <c r="AJ17" s="5"/>
       <c r="AK17" s="5"/>
-    </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL17" s="5"/>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -11847,10 +12327,11 @@
       <c r="AI18" s="5"/>
       <c r="AJ18" s="5"/>
       <c r="AK18" s="5"/>
-    </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL18" s="5"/>
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -11888,10 +12369,11 @@
       <c r="AI19" s="5"/>
       <c r="AJ19" s="5"/>
       <c r="AK19" s="5"/>
-    </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL19" s="5"/>
+    </row>
+    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -11929,10 +12411,11 @@
       <c r="AI20" s="5"/>
       <c r="AJ20" s="5"/>
       <c r="AK20" s="5"/>
-    </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL20" s="5"/>
+    </row>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -11970,10 +12453,11 @@
       <c r="AI21" s="5"/>
       <c r="AJ21" s="5"/>
       <c r="AK21" s="5"/>
-    </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL21" s="5"/>
+    </row>
+    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -12011,10 +12495,11 @@
       <c r="AI22" s="5"/>
       <c r="AJ22" s="5"/>
       <c r="AK22" s="5"/>
-    </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL22" s="5"/>
+    </row>
+    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -12052,10 +12537,11 @@
       <c r="AI23" s="5"/>
       <c r="AJ23" s="5"/>
       <c r="AK23" s="5"/>
-    </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL23" s="5"/>
+    </row>
+    <row r="24" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -12093,10 +12579,11 @@
       <c r="AI24" s="5"/>
       <c r="AJ24" s="5"/>
       <c r="AK24" s="5"/>
-    </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL24" s="5"/>
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -12134,10 +12621,11 @@
       <c r="AI25" s="5"/>
       <c r="AJ25" s="5"/>
       <c r="AK25" s="5"/>
-    </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL25" s="5"/>
+    </row>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -12175,10 +12663,11 @@
       <c r="AI26" s="5"/>
       <c r="AJ26" s="5"/>
       <c r="AK26" s="5"/>
-    </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL26" s="5"/>
+    </row>
+    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -12216,10 +12705,11 @@
       <c r="AI27" s="5"/>
       <c r="AJ27" s="5"/>
       <c r="AK27" s="5"/>
-    </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL27" s="5"/>
+    </row>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -12257,10 +12747,11 @@
       <c r="AI28" s="5"/>
       <c r="AJ28" s="5"/>
       <c r="AK28" s="5"/>
-    </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL28" s="5"/>
+    </row>
+    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -12298,10 +12789,11 @@
       <c r="AI29" s="5"/>
       <c r="AJ29" s="5"/>
       <c r="AK29" s="5"/>
-    </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL29" s="5"/>
+    </row>
+    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -12339,10 +12831,11 @@
       <c r="AI30" s="5"/>
       <c r="AJ30" s="5"/>
       <c r="AK30" s="5"/>
-    </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL30" s="5"/>
+    </row>
+    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -12380,10 +12873,11 @@
       <c r="AI31" s="5"/>
       <c r="AJ31" s="5"/>
       <c r="AK31" s="5"/>
-    </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL31" s="5"/>
+    </row>
+    <row r="32" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -12421,10 +12915,11 @@
       <c r="AI32" s="5"/>
       <c r="AJ32" s="5"/>
       <c r="AK32" s="5"/>
-    </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL32" s="5"/>
+    </row>
+    <row r="33" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -12462,10 +12957,11 @@
       <c r="AI33" s="5"/>
       <c r="AJ33" s="5"/>
       <c r="AK33" s="5"/>
-    </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL33" s="5"/>
+    </row>
+    <row r="34" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -12503,10 +12999,11 @@
       <c r="AI34" s="5"/>
       <c r="AJ34" s="5"/>
       <c r="AK34" s="5"/>
-    </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL34" s="5"/>
+    </row>
+    <row r="35" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -12544,10 +13041,11 @@
       <c r="AI35" s="5"/>
       <c r="AJ35" s="5"/>
       <c r="AK35" s="5"/>
-    </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL35" s="5"/>
+    </row>
+    <row r="36" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -12585,10 +13083,11 @@
       <c r="AI36" s="5"/>
       <c r="AJ36" s="5"/>
       <c r="AK36" s="5"/>
-    </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL36" s="5"/>
+    </row>
+    <row r="37" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -12626,51 +13125,53 @@
       <c r="AI37" s="5"/>
       <c r="AJ37" s="5"/>
       <c r="AK37" s="5"/>
-    </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
-      <c r="O38" s="4"/>
-      <c r="P38" s="4"/>
-      <c r="Q38" s="4"/>
-      <c r="R38" s="4"/>
-      <c r="S38" s="4"/>
-      <c r="T38" s="4"/>
-      <c r="U38" s="4"/>
-      <c r="V38" s="4"/>
-      <c r="W38" s="4"/>
-      <c r="X38" s="4"/>
-      <c r="Y38" s="4"/>
-      <c r="Z38" s="4"/>
-      <c r="AA38" s="4"/>
-      <c r="AB38" s="4"/>
-      <c r="AC38" s="4"/>
-      <c r="AD38" s="4"/>
-      <c r="AE38" s="4"/>
-      <c r="AF38" s="4"/>
-      <c r="AG38" s="4"/>
-      <c r="AH38" s="4"/>
-      <c r="AI38" s="4"/>
-      <c r="AJ38" s="4"/>
-      <c r="AK38" s="4"/>
-    </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL37" s="5"/>
+    </row>
+    <row r="38" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="5"/>
+      <c r="X38" s="5"/>
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="5"/>
+      <c r="AA38" s="5"/>
+      <c r="AB38" s="5"/>
+      <c r="AC38" s="5"/>
+      <c r="AD38" s="5"/>
+      <c r="AE38" s="5"/>
+      <c r="AF38" s="5"/>
+      <c r="AG38" s="5"/>
+      <c r="AH38" s="5"/>
+      <c r="AI38" s="5"/>
+      <c r="AJ38" s="5"/>
+      <c r="AK38" s="5"/>
+      <c r="AL38" s="5"/>
+    </row>
+    <row r="39" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -12708,10 +13209,11 @@
       <c r="AI39" s="4"/>
       <c r="AJ39" s="4"/>
       <c r="AK39" s="4"/>
-    </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL39" s="4"/>
+    </row>
+    <row r="40" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -12749,47 +13251,91 @@
       <c r="AI40" s="4"/>
       <c r="AJ40" s="4"/>
       <c r="AK40" s="4"/>
-    </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL40" s="4"/>
+    </row>
+    <row r="41" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
-      <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
-      <c r="U41" s="2"/>
-      <c r="V41" s="2"/>
-      <c r="W41" s="2"/>
-      <c r="X41" s="2"/>
-      <c r="Y41" s="2"/>
-      <c r="Z41" s="2"/>
-      <c r="AA41" s="2"/>
-      <c r="AB41" s="2"/>
-      <c r="AC41" s="2"/>
-      <c r="AD41" s="2"/>
-      <c r="AE41" s="2"/>
-      <c r="AF41" s="2"/>
-      <c r="AG41" s="2"/>
-      <c r="AH41" s="2"/>
-      <c r="AI41" s="2"/>
-      <c r="AJ41" s="2"/>
-      <c r="AK41" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+      <c r="U41" s="4"/>
+      <c r="V41" s="4"/>
+      <c r="W41" s="4"/>
+      <c r="X41" s="4"/>
+      <c r="Y41" s="4"/>
+      <c r="Z41" s="4"/>
+      <c r="AA41" s="4"/>
+      <c r="AB41" s="4"/>
+      <c r="AC41" s="4"/>
+      <c r="AD41" s="4"/>
+      <c r="AE41" s="4"/>
+      <c r="AF41" s="4"/>
+      <c r="AG41" s="4"/>
+      <c r="AH41" s="4"/>
+      <c r="AI41" s="4"/>
+      <c r="AJ41" s="4"/>
+      <c r="AK41" s="4"/>
+      <c r="AL41" s="4"/>
+    </row>
+    <row r="42" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+      <c r="X42" s="2"/>
+      <c r="Y42" s="2"/>
+      <c r="Z42" s="2"/>
+      <c r="AA42" s="2"/>
+      <c r="AB42" s="2"/>
+      <c r="AC42" s="2"/>
+      <c r="AD42" s="2"/>
+      <c r="AE42" s="2"/>
+      <c r="AF42" s="2"/>
+      <c r="AG42" s="2"/>
+      <c r="AH42" s="2"/>
+      <c r="AI42" s="2"/>
+      <c r="AJ42" s="2"/>
+      <c r="AK42" s="2"/>
+      <c r="AL42" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
